--- a/AAPL Models.xlsx
+++ b/AAPL Models.xlsx
@@ -8,13 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E1C1CFC-46BB-43B6-908B-9C6897665DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1B16A4-C377-4641-AC17-7CC770346CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19AC2A9C-9D7C-4810-B43F-753FF0DDFD30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{19AC2A9C-9D7C-4810-B43F-753FF0DDFD30}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Historicals and 3SM" sheetId="1" r:id="rId1"/>
+    <sheet name="DCF" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="tgr">DCF!$E$16</definedName>
+    <definedName name="wacc">DCF!$E$14</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,9 +44,559 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jovany Valdez</author>
+    <author>Matan Feldman</author>
+  </authors>
+  <commentList>
+    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{133E2A64-4560-42DE-AB90-BFA64BB31848}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jovany Valdez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+FIX LONG TERM DEBT
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B109" authorId="1" shapeId="0" xr:uid="{0C8442CE-9C4D-4147-B16F-EBFE812AB509}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Statement of shareholders equity schedule, p.41 Apple 2018 10K</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B110" authorId="1" shapeId="0" xr:uid="{A128DB55-3758-4960-B66D-E88F9CD0F0F0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Statement of shareholders equity schedule, p.41 Apple 2018 10K</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B136" authorId="1" shapeId="0" xr:uid="{C9660819-F33A-401C-9A42-3A446C345584}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">We estimate the historical interest rate (though not explicitly disclosed by Apple). </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B137" authorId="1" shapeId="0" xr:uid="{1869DFF8-AB59-4D3D-8FF6-941EEC10B5A7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Although Apple doesn't disclose interest expense specifically, it does disclose the interest rate on commercial paper which enables us to back into interest expense for LTD</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{815E3423-8D06-4D88-816D-F2254DCCD823}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>FactSet Estimates</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="142">
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Implied Share Price</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Current Share Price</t>
+  </si>
+  <si>
+    <t>Fiscal Year End</t>
+  </si>
+  <si>
+    <t>Implied Gain / (Loss)</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Case Switches</t>
+  </si>
+  <si>
+    <t>Conservative  Case</t>
+  </si>
+  <si>
+    <t>Base Case</t>
+  </si>
+  <si>
+    <t>Optimistic Case</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Tax Margin</t>
+  </si>
+  <si>
+    <t>Income Statement ($m)</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>EBT</t>
+  </si>
+  <si>
+    <t>Tax Expense</t>
+  </si>
+  <si>
+    <t>Earnings</t>
+  </si>
+  <si>
+    <t>Depreciation &amp; amortization</t>
+  </si>
+  <si>
+    <t>Stock based compensation</t>
+  </si>
+  <si>
+    <t>Adjusted EBITDA</t>
+  </si>
+  <si>
+    <t>Margins</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Balance Sheet ($m)</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Account Receivebles</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Other current assets</t>
+  </si>
+  <si>
+    <t>Property, plant, and equipment</t>
+  </si>
+  <si>
+    <t>Other non-current assets</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
+  <si>
+    <t>Accounts payable</t>
+  </si>
+  <si>
+    <t>Other current liabilities</t>
+  </si>
+  <si>
+    <t>Deferred revenue (current and non current)</t>
+  </si>
+  <si>
+    <t>Commercial paper / revolver</t>
+  </si>
+  <si>
+    <t>Long term debt (includes current portion)</t>
+  </si>
+  <si>
+    <t>Other non current liabilities</t>
+  </si>
+  <si>
+    <t>Total liabilities</t>
+  </si>
+  <si>
+    <t>Common stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retained earnings </t>
+  </si>
+  <si>
+    <t>Other comprehensive income</t>
+  </si>
+  <si>
+    <t>Total equity</t>
+  </si>
+  <si>
+    <t>Balance Check</t>
+  </si>
+  <si>
+    <t>Cashflow Statement</t>
+  </si>
+  <si>
+    <t>Net income</t>
+  </si>
+  <si>
+    <t>Depreciation and amortization</t>
+  </si>
+  <si>
+    <t>Decreases / (Increases) in working capital assets</t>
+  </si>
+  <si>
+    <t>Increases / (Decreases) in working capital liabilities</t>
+  </si>
+  <si>
+    <t>Other non current assets</t>
+  </si>
+  <si>
+    <t>Cash from operating activities</t>
+  </si>
+  <si>
+    <t>Capital expenditures</t>
+  </si>
+  <si>
+    <t>Cash from investing activities</t>
+  </si>
+  <si>
+    <t>Long term debt</t>
+  </si>
+  <si>
+    <t>Revolver</t>
+  </si>
+  <si>
+    <t>Share repurchases</t>
+  </si>
+  <si>
+    <t>Common dividends</t>
+  </si>
+  <si>
+    <t>Cash from financing activities</t>
+  </si>
+  <si>
+    <t>Net change in cash during period</t>
+  </si>
+  <si>
+    <t>Schedules</t>
+  </si>
+  <si>
+    <t>Plant, Property, and Equipment</t>
+  </si>
+  <si>
+    <t>Beginning of period</t>
+  </si>
+  <si>
+    <t>Plus: Capital expenditures</t>
+  </si>
+  <si>
+    <t>Less: Depreciation</t>
+  </si>
+  <si>
+    <t>End of period</t>
+  </si>
+  <si>
+    <t>D&amp;A related to PP&amp;E as a % of capex</t>
+  </si>
+  <si>
+    <t>Total D&amp;A</t>
+  </si>
+  <si>
+    <t>D&amp;A not related to PPE</t>
+  </si>
+  <si>
+    <t>as % of revenue</t>
+  </si>
+  <si>
+    <t>Depreciation and Amortization - Total</t>
+  </si>
+  <si>
+    <t>OTHER NON-CURRENT ASSETS</t>
+  </si>
+  <si>
+    <t>Less: Amortization of intangible assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus: Additions </t>
+  </si>
+  <si>
+    <t>RETAINED EARNINGS</t>
+  </si>
+  <si>
+    <t>Plus: Net income</t>
+  </si>
+  <si>
+    <t>Less: Dividends</t>
+  </si>
+  <si>
+    <t>Less: Repurchases</t>
+  </si>
+  <si>
+    <t>REVOLVER (MODEL PLUG)</t>
+  </si>
+  <si>
+    <t>Revolver needs analysis</t>
+  </si>
+  <si>
+    <t>Cash at beginning of period (BOP)</t>
+  </si>
+  <si>
+    <t>Less: Minimum cash balance</t>
+  </si>
+  <si>
+    <t>Plus: Free cash flows generated during period</t>
+  </si>
+  <si>
+    <t>Equals: Cash available (needed) to pay down (draw from) revolver</t>
+  </si>
+  <si>
+    <t>Commercial paper / Revolver</t>
+  </si>
+  <si>
+    <t>Draw / (paydown)</t>
+  </si>
+  <si>
+    <t>Discretionary borrowing / (paydown)</t>
+  </si>
+  <si>
+    <t>INTEREST EXPENSE AND INTEREST INCOME</t>
+  </si>
+  <si>
+    <t>Total interest expense (from I/S)</t>
+  </si>
+  <si>
+    <t>Commercial Paper / Revolver</t>
+  </si>
+  <si>
+    <t>Weighted average interest rate</t>
+  </si>
+  <si>
+    <t>End of period balance (from B/S)</t>
+  </si>
+  <si>
+    <t>Interest expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest expense </t>
+  </si>
+  <si>
+    <t>Interest rate on cash</t>
+  </si>
+  <si>
+    <t>Weighted average interest rate on cash</t>
+  </si>
+  <si>
+    <t>Interest income</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>APPLE HISTORICALS</t>
+  </si>
+  <si>
+    <t>Year end</t>
+  </si>
+  <si>
+    <t>Switches</t>
+  </si>
+  <si>
+    <t>Conservative</t>
+  </si>
+  <si>
+    <t>Street / Base</t>
+  </si>
+  <si>
+    <t>Optimistic</t>
+  </si>
+  <si>
+    <t>Revenue '24-'25</t>
+  </si>
+  <si>
+    <t>Revenue 2028</t>
+  </si>
+  <si>
+    <t>WACC</t>
+  </si>
+  <si>
+    <t>EBIT '24-'25</t>
+  </si>
+  <si>
+    <t>TGR</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>% growth</t>
+  </si>
+  <si>
+    <t>% of sales</t>
+  </si>
+  <si>
+    <t>Cash Flow Items (12/31 CYE)</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Change in NWC</t>
+  </si>
+  <si>
+    <t>% of change in sales</t>
+  </si>
+  <si>
+    <t>DCF</t>
+  </si>
+  <si>
+    <t>Conservative Case</t>
+  </si>
+  <si>
+    <t>Street Case</t>
+  </si>
+  <si>
+    <t>% of EBIT</t>
+  </si>
+  <si>
+    <t>EBIAT</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Present Value of FCF</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Discount Period</t>
+  </si>
+  <si>
+    <t>Terminal Value</t>
+  </si>
+  <si>
+    <t>Present Value of Terminal Value</t>
+  </si>
+  <si>
+    <t>Enterprise Value</t>
+  </si>
+  <si>
+    <t>(+) Cash</t>
+  </si>
+  <si>
+    <t>(-) Debt</t>
+  </si>
+  <si>
+    <t>Equity Value</t>
+  </si>
+  <si>
+    <t>Diluted Shares</t>
+  </si>
+  <si>
+    <t>Implied Stock Price</t>
+  </si>
+  <si>
+    <t>APPLE DCF</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0&quot;E&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.0%_);\(0.0%\);@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0%;\(0%\)"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +604,167 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -62,15 +772,353 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -83,6 +1131,250 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Historicals and 3SM"/>
+      <sheetName val="DCF Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="17">
+          <cell r="G17">
+            <v>85320</v>
+          </cell>
+          <cell r="H17">
+            <v>89950</v>
+          </cell>
+          <cell r="I17">
+            <v>110360</v>
+          </cell>
+          <cell r="J17">
+            <v>125843</v>
+          </cell>
+          <cell r="K17">
+            <v>143015</v>
+          </cell>
+          <cell r="L17">
+            <v>168088</v>
+          </cell>
+          <cell r="M17">
+            <v>198270</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="G22">
+            <v>20182</v>
+          </cell>
+          <cell r="H22">
+            <v>22326</v>
+          </cell>
+          <cell r="I22">
+            <v>35058</v>
+          </cell>
+          <cell r="J22">
+            <v>42959</v>
+          </cell>
+          <cell r="K22">
+            <v>52959</v>
+          </cell>
+          <cell r="L22">
+            <v>69916</v>
+          </cell>
+          <cell r="M22">
+            <v>83383</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="G42">
+            <v>113240</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="G43">
+            <v>18277</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="G44">
+            <v>2251</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="G45">
+            <v>5892</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="H67">
+            <v>8778</v>
+          </cell>
+          <cell r="I67">
+            <v>10261</v>
+          </cell>
+          <cell r="J67">
+            <v>11682</v>
+          </cell>
+          <cell r="K67">
+            <v>12796</v>
+          </cell>
+          <cell r="L67">
+            <v>11686</v>
+          </cell>
+          <cell r="M67">
+            <v>14460</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="H89">
+            <v>8129</v>
+          </cell>
+          <cell r="I89">
+            <v>11632</v>
+          </cell>
+          <cell r="J89">
+            <v>13925</v>
+          </cell>
+          <cell r="K89">
+            <v>15441</v>
+          </cell>
+          <cell r="L89">
+            <v>20622</v>
+          </cell>
+          <cell r="M89">
+            <v>23886</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="I4" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>410.17</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="__FDSCACHE__"/>
+      <sheetName val="DCF"/>
+      <sheetName val="WACC"/>
+      <sheetName val="Taxes"/>
+      <sheetName val="Historicals"/>
+      <sheetName val="Estimates"/>
+      <sheetName val="CFS"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="15">
+          <cell r="F15">
+            <v>9705</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="45">
+          <cell r="W45">
+            <v>3.5950440635313753E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="10">
+          <cell r="C10">
+            <v>4646.0749999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="5">
+          <cell r="K5">
+            <v>51794.5</v>
+          </cell>
+          <cell r="L5">
+            <v>77970.100000000006</v>
+          </cell>
+          <cell r="M5">
+            <v>93531.8</v>
+          </cell>
+          <cell r="N5">
+            <v>111484</v>
+          </cell>
+          <cell r="O5">
+            <v>139956</v>
+          </cell>
+          <cell r="P5">
+            <v>135485</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="K9">
+            <v>28181.8</v>
+          </cell>
+          <cell r="L9">
+            <v>45402.400000000001</v>
+          </cell>
+          <cell r="M9">
+            <v>54401</v>
+          </cell>
+          <cell r="N9">
+            <v>65999.600000000006</v>
+          </cell>
+          <cell r="O9">
+            <v>83947.3</v>
+          </cell>
+          <cell r="P9">
+            <v>81477.7</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="32">
+          <cell r="C32">
+            <v>-202.527008</v>
+          </cell>
+          <cell r="G32">
+            <v>-857</v>
+          </cell>
+          <cell r="H32">
+            <v>717</v>
+          </cell>
+          <cell r="I32">
+            <v>-703</v>
+          </cell>
+          <cell r="J32">
+            <v>-3363</v>
+          </cell>
+          <cell r="K32">
+            <v>-2207</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,13 +1673,4940 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC8EC44-557D-4963-A951-793EC46E46C6}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC8EC44-557D-4963-A951-793EC46E46C6}">
+  <dimension ref="A2:S141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="e">
+        <f ca="1">'[1]DCF Model'!I4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <f ca="1">TODAY()</f>
+        <v>45218</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6">
+        <f>'[1]DCF Model'!I5</f>
+        <v>410.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>44828</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="7" t="e">
+        <f ca="1">(I4/I5)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8">
+        <v>2016</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" ref="H16:N16" si="0">G16+1</f>
+        <v>2017</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="O16" s="11">
+        <f>N16+1</f>
+        <v>2024</v>
+      </c>
+      <c r="P16" s="11">
+        <f t="shared" ref="P16:S16" si="1">O16+1</f>
+        <v>2025</v>
+      </c>
+      <c r="Q16" s="11">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+      <c r="R16" s="11">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="S16" s="11">
+        <f t="shared" si="1"/>
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12">
+        <v>85320</v>
+      </c>
+      <c r="H17" s="12">
+        <v>89950</v>
+      </c>
+      <c r="I17" s="12">
+        <v>110360</v>
+      </c>
+      <c r="J17" s="12">
+        <v>125843</v>
+      </c>
+      <c r="K17" s="12">
+        <v>143015</v>
+      </c>
+      <c r="L17" s="12">
+        <v>168088</v>
+      </c>
+      <c r="M17" s="12">
+        <v>198270</v>
+      </c>
+      <c r="N17" s="12">
+        <v>211915</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12">
+        <v>-32780</v>
+      </c>
+      <c r="H18" s="12">
+        <v>-34261</v>
+      </c>
+      <c r="I18" s="12">
+        <v>-38353</v>
+      </c>
+      <c r="J18" s="12">
+        <v>-42910</v>
+      </c>
+      <c r="K18" s="12">
+        <v>-46078</v>
+      </c>
+      <c r="L18" s="12">
+        <v>-52232</v>
+      </c>
+      <c r="M18" s="12">
+        <v>-62650</v>
+      </c>
+      <c r="N18" s="12">
+        <v>-65863</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14">
+        <f t="shared" ref="G19:N19" si="2">SUM(G17:G18)</f>
+        <v>52540</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="2"/>
+        <v>55689</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" si="2"/>
+        <v>72007</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" si="2"/>
+        <v>82933</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="2"/>
+        <v>96937</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="2"/>
+        <v>115856</v>
+      </c>
+      <c r="M19" s="14">
+        <f t="shared" si="2"/>
+        <v>135620</v>
+      </c>
+      <c r="N19" s="14">
+        <f t="shared" si="2"/>
+        <v>146052</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12">
+        <v>-11988</v>
+      </c>
+      <c r="H20" s="12">
+        <v>-13037</v>
+      </c>
+      <c r="I20" s="12">
+        <v>-14726</v>
+      </c>
+      <c r="J20" s="12">
+        <v>-16876</v>
+      </c>
+      <c r="K20" s="12">
+        <v>-19269</v>
+      </c>
+      <c r="L20" s="12">
+        <v>-20716</v>
+      </c>
+      <c r="M20" s="12">
+        <v>-24512</v>
+      </c>
+      <c r="N20" s="12">
+        <v>-27195</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12">
+        <v>-20370</v>
+      </c>
+      <c r="H21" s="12">
+        <v>-20326</v>
+      </c>
+      <c r="I21" s="12">
+        <v>-22223</v>
+      </c>
+      <c r="J21" s="12">
+        <v>-23098</v>
+      </c>
+      <c r="K21" s="12">
+        <v>-24709</v>
+      </c>
+      <c r="L21" s="12">
+        <v>-25224</v>
+      </c>
+      <c r="M21" s="12">
+        <v>-27725</v>
+      </c>
+      <c r="N21" s="12">
+        <v>-30334</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14">
+        <f t="shared" ref="G22:N22" si="3">SUM(G19:G21)</f>
+        <v>20182</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="3"/>
+        <v>22326</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="3"/>
+        <v>35058</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="3"/>
+        <v>42959</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="3"/>
+        <v>52959</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" si="3"/>
+        <v>69916</v>
+      </c>
+      <c r="M22" s="14">
+        <f t="shared" si="3"/>
+        <v>83383</v>
+      </c>
+      <c r="N22" s="14">
+        <f t="shared" si="3"/>
+        <v>88523</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12">
+        <v>903</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1387</v>
+      </c>
+      <c r="I23" s="12">
+        <v>2214</v>
+      </c>
+      <c r="J23" s="12">
+        <v>2762</v>
+      </c>
+      <c r="K23" s="12">
+        <v>2680</v>
+      </c>
+      <c r="L23" s="12">
+        <v>2131</v>
+      </c>
+      <c r="M23" s="12">
+        <v>2094</v>
+      </c>
+      <c r="N23" s="12">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12">
+        <v>-1243</v>
+      </c>
+      <c r="H24" s="12">
+        <v>-2222</v>
+      </c>
+      <c r="I24" s="12">
+        <v>-2733</v>
+      </c>
+      <c r="J24" s="12">
+        <v>-2686</v>
+      </c>
+      <c r="K24" s="12">
+        <v>-2591</v>
+      </c>
+      <c r="L24" s="12">
+        <v>-2346</v>
+      </c>
+      <c r="M24" s="12">
+        <v>-2063</v>
+      </c>
+      <c r="N24" s="12">
+        <v>-1968</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14">
+        <f t="shared" ref="G25:N25" si="4">SUM(G22:G24)</f>
+        <v>19842</v>
+      </c>
+      <c r="H25" s="14">
+        <f t="shared" si="4"/>
+        <v>21491</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="4"/>
+        <v>34539</v>
+      </c>
+      <c r="J25" s="14">
+        <f t="shared" si="4"/>
+        <v>43035</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="4"/>
+        <v>53048</v>
+      </c>
+      <c r="L25" s="14">
+        <f t="shared" si="4"/>
+        <v>69701</v>
+      </c>
+      <c r="M25" s="14">
+        <f t="shared" si="4"/>
+        <v>83414</v>
+      </c>
+      <c r="N25" s="14">
+        <f t="shared" si="4"/>
+        <v>89549</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12">
+        <v>-2953</v>
+      </c>
+      <c r="H26" s="12">
+        <v>-1945</v>
+      </c>
+      <c r="I26" s="12">
+        <v>-19903</v>
+      </c>
+      <c r="J26" s="12">
+        <v>-4448</v>
+      </c>
+      <c r="K26" s="12">
+        <v>-8755</v>
+      </c>
+      <c r="L26" s="12">
+        <v>-9831</v>
+      </c>
+      <c r="M26" s="12">
+        <v>-10978</v>
+      </c>
+      <c r="N26" s="12">
+        <v>-16950</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
+        <f t="shared" ref="G27:N27" si="5">SUM(G25:G26)</f>
+        <v>16889</v>
+      </c>
+      <c r="H27" s="14">
+        <f t="shared" si="5"/>
+        <v>19546</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="5"/>
+        <v>14636</v>
+      </c>
+      <c r="J27" s="14">
+        <f t="shared" si="5"/>
+        <v>38587</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="5"/>
+        <v>44293</v>
+      </c>
+      <c r="L27" s="14">
+        <f t="shared" si="5"/>
+        <v>59870</v>
+      </c>
+      <c r="M27" s="14">
+        <f t="shared" si="5"/>
+        <v>72436</v>
+      </c>
+      <c r="N27" s="14">
+        <f t="shared" si="5"/>
+        <v>72599</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12">
+        <v>6622</v>
+      </c>
+      <c r="H29" s="12">
+        <v>8778</v>
+      </c>
+      <c r="I29" s="12">
+        <v>10261</v>
+      </c>
+      <c r="J29" s="12">
+        <v>11682</v>
+      </c>
+      <c r="K29" s="12">
+        <v>12796</v>
+      </c>
+      <c r="L29" s="12">
+        <v>11686</v>
+      </c>
+      <c r="M29" s="12">
+        <v>14460</v>
+      </c>
+      <c r="N29" s="12">
+        <v>13861</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14">
+        <f t="shared" ref="G30:N30" si="6">G29+G22</f>
+        <v>26804</v>
+      </c>
+      <c r="H30" s="14">
+        <f t="shared" si="6"/>
+        <v>31104</v>
+      </c>
+      <c r="I30" s="14">
+        <f t="shared" si="6"/>
+        <v>45319</v>
+      </c>
+      <c r="J30" s="14">
+        <f t="shared" si="6"/>
+        <v>54641</v>
+      </c>
+      <c r="K30" s="14">
+        <f t="shared" si="6"/>
+        <v>65755</v>
+      </c>
+      <c r="L30" s="14">
+        <f t="shared" si="6"/>
+        <v>81602</v>
+      </c>
+      <c r="M30" s="14">
+        <f t="shared" si="6"/>
+        <v>97843</v>
+      </c>
+      <c r="N30" s="14">
+        <f t="shared" si="6"/>
+        <v>102384</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12">
+        <v>2668</v>
+      </c>
+      <c r="H31" s="12">
+        <v>3266</v>
+      </c>
+      <c r="I31" s="12">
+        <v>3940</v>
+      </c>
+      <c r="J31" s="12">
+        <v>4652</v>
+      </c>
+      <c r="K31" s="12">
+        <v>5289</v>
+      </c>
+      <c r="L31" s="12">
+        <v>6118</v>
+      </c>
+      <c r="M31" s="12">
+        <v>7502</v>
+      </c>
+      <c r="N31" s="12">
+        <v>9611</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14">
+        <f t="shared" ref="G32:N32" si="7">G31+G30</f>
+        <v>29472</v>
+      </c>
+      <c r="H32" s="14">
+        <f t="shared" si="7"/>
+        <v>34370</v>
+      </c>
+      <c r="I32" s="14">
+        <f t="shared" si="7"/>
+        <v>49259</v>
+      </c>
+      <c r="J32" s="14">
+        <f t="shared" si="7"/>
+        <v>59293</v>
+      </c>
+      <c r="K32" s="14">
+        <f t="shared" si="7"/>
+        <v>71044</v>
+      </c>
+      <c r="L32" s="14">
+        <f t="shared" si="7"/>
+        <v>87720</v>
+      </c>
+      <c r="M32" s="14">
+        <f t="shared" si="7"/>
+        <v>105345</v>
+      </c>
+      <c r="N32" s="14">
+        <f t="shared" si="7"/>
+        <v>111995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="13"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="18">
+        <f t="shared" ref="G35:N35" si="8">(G17-F17)/G17</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="19">
+        <f t="shared" si="8"/>
+        <v>5.1473040578098941E-2</v>
+      </c>
+      <c r="I35" s="19">
+        <f t="shared" si="8"/>
+        <v>0.18494019572308806</v>
+      </c>
+      <c r="J35" s="19">
+        <f t="shared" si="8"/>
+        <v>0.12303425697098766</v>
+      </c>
+      <c r="K35" s="19">
+        <f t="shared" si="8"/>
+        <v>0.12007132119008496</v>
+      </c>
+      <c r="L35" s="19">
+        <f t="shared" si="8"/>
+        <v>0.1491659130931417</v>
+      </c>
+      <c r="M35" s="19">
+        <f t="shared" si="8"/>
+        <v>0.15222676148686135</v>
+      </c>
+      <c r="N35" s="20">
+        <f t="shared" si="8"/>
+        <v>6.4389023901092413E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="21">
+        <f t="shared" ref="G36:N38" si="9">(G19-F19)/G19</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="22">
+        <f t="shared" si="9"/>
+        <v>5.6546176085043726E-2</v>
+      </c>
+      <c r="I36" s="22">
+        <f t="shared" si="9"/>
+        <v>0.22661685669448803</v>
+      </c>
+      <c r="J36" s="22">
+        <f t="shared" si="9"/>
+        <v>0.13174490251166604</v>
+      </c>
+      <c r="K36" s="22">
+        <f t="shared" si="9"/>
+        <v>0.14446496177929996</v>
+      </c>
+      <c r="L36" s="22">
+        <f t="shared" si="9"/>
+        <v>0.16329754177599778</v>
+      </c>
+      <c r="M36" s="22">
+        <f t="shared" si="9"/>
+        <v>0.14573071818315883</v>
+      </c>
+      <c r="N36" s="23">
+        <f t="shared" si="9"/>
+        <v>7.1426615178155725E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="21">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="22">
+        <f t="shared" si="9"/>
+        <v>8.0463296770729456E-2</v>
+      </c>
+      <c r="I37" s="22">
+        <f t="shared" si="9"/>
+        <v>0.1146950971071574</v>
+      </c>
+      <c r="J37" s="22">
+        <f t="shared" si="9"/>
+        <v>0.12739985778620527</v>
+      </c>
+      <c r="K37" s="22">
+        <f t="shared" si="9"/>
+        <v>0.12418911204525404</v>
+      </c>
+      <c r="L37" s="22">
+        <f t="shared" si="9"/>
+        <v>6.9849391774473843E-2</v>
+      </c>
+      <c r="M37" s="22">
+        <f t="shared" si="9"/>
+        <v>0.15486292428198434</v>
+      </c>
+      <c r="N37" s="23">
+        <f t="shared" si="9"/>
+        <v>9.8657841514984371E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="21">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="22">
+        <f t="shared" si="9"/>
+        <v>-2.1647151431663878E-3</v>
+      </c>
+      <c r="I38" s="22">
+        <f t="shared" si="9"/>
+        <v>8.5362012329568471E-2</v>
+      </c>
+      <c r="J38" s="22">
+        <f t="shared" si="9"/>
+        <v>3.7882067711490171E-2</v>
+      </c>
+      <c r="K38" s="22">
+        <f t="shared" si="9"/>
+        <v>6.5198915374964583E-2</v>
+      </c>
+      <c r="L38" s="22">
+        <f t="shared" si="9"/>
+        <v>2.0417063114494132E-2</v>
+      </c>
+      <c r="M38" s="22">
+        <f t="shared" si="9"/>
+        <v>9.0207394048692519E-2</v>
+      </c>
+      <c r="N38" s="23">
+        <f t="shared" si="9"/>
+        <v>8.6009098701127454E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="24">
+        <f t="shared" ref="G39:N39" si="10">(G26/G25)*-1</f>
+        <v>0.14882572321338575</v>
+      </c>
+      <c r="H39" s="25">
+        <f t="shared" si="10"/>
+        <v>9.0503001256339866E-2</v>
+      </c>
+      <c r="I39" s="25">
+        <f t="shared" si="10"/>
+        <v>0.57624714091317064</v>
+      </c>
+      <c r="J39" s="25">
+        <f t="shared" si="10"/>
+        <v>0.10335773207854072</v>
+      </c>
+      <c r="K39" s="25">
+        <f t="shared" si="10"/>
+        <v>0.1650392097722817</v>
+      </c>
+      <c r="L39" s="25">
+        <f t="shared" si="10"/>
+        <v>0.14104532216180543</v>
+      </c>
+      <c r="M39" s="25">
+        <f t="shared" si="10"/>
+        <v>0.13160860287241949</v>
+      </c>
+      <c r="N39" s="26">
+        <f t="shared" si="10"/>
+        <v>0.18928184569341924</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8">
+        <v>2016</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" ref="H41:N41" si="11">G41+1</f>
+        <v>2017</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="11"/>
+        <v>2018</v>
+      </c>
+      <c r="J41" s="8">
+        <f t="shared" si="11"/>
+        <v>2019</v>
+      </c>
+      <c r="K41" s="8">
+        <f t="shared" si="11"/>
+        <v>2020</v>
+      </c>
+      <c r="L41" s="8">
+        <f t="shared" si="11"/>
+        <v>2021</v>
+      </c>
+      <c r="M41" s="8">
+        <f t="shared" si="11"/>
+        <v>2022</v>
+      </c>
+      <c r="N41" s="8">
+        <f t="shared" si="11"/>
+        <v>2023</v>
+      </c>
+      <c r="O41" s="11">
+        <f>N41+1</f>
+        <v>2024</v>
+      </c>
+      <c r="P41" s="11">
+        <f t="shared" ref="P41:S41" si="12">O41+1</f>
+        <v>2025</v>
+      </c>
+      <c r="Q41" s="11">
+        <f t="shared" si="12"/>
+        <v>2026</v>
+      </c>
+      <c r="R41" s="11">
+        <f t="shared" si="12"/>
+        <v>2027</v>
+      </c>
+      <c r="S41" s="11">
+        <f t="shared" si="12"/>
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="12">
+        <v>113240</v>
+      </c>
+      <c r="H42" s="12">
+        <v>132981</v>
+      </c>
+      <c r="I42" s="12">
+        <v>133768</v>
+      </c>
+      <c r="J42" s="12">
+        <v>133819</v>
+      </c>
+      <c r="K42" s="12">
+        <v>136527</v>
+      </c>
+      <c r="L42" s="12">
+        <v>130334</v>
+      </c>
+      <c r="M42" s="12">
+        <v>104757</v>
+      </c>
+      <c r="N42" s="12">
+        <v>111262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="12">
+        <v>18277</v>
+      </c>
+      <c r="H43" s="12">
+        <v>19792</v>
+      </c>
+      <c r="I43" s="12">
+        <v>26481</v>
+      </c>
+      <c r="J43" s="12">
+        <v>29524</v>
+      </c>
+      <c r="K43" s="12">
+        <v>32011</v>
+      </c>
+      <c r="L43" s="12">
+        <v>38043</v>
+      </c>
+      <c r="M43" s="12">
+        <v>44261</v>
+      </c>
+      <c r="N43" s="12">
+        <v>48688</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="12">
+        <v>2251</v>
+      </c>
+      <c r="H44" s="12">
+        <v>2181</v>
+      </c>
+      <c r="I44" s="12">
+        <v>2662</v>
+      </c>
+      <c r="J44" s="12">
+        <v>2063</v>
+      </c>
+      <c r="K44" s="12">
+        <v>1895</v>
+      </c>
+      <c r="L44" s="12">
+        <v>2636</v>
+      </c>
+      <c r="M44" s="12">
+        <v>3742</v>
+      </c>
+      <c r="N44" s="12">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="12">
+        <v>5892</v>
+      </c>
+      <c r="H45" s="12">
+        <v>4897</v>
+      </c>
+      <c r="I45" s="12">
+        <v>6751</v>
+      </c>
+      <c r="J45" s="12">
+        <v>10146</v>
+      </c>
+      <c r="K45" s="12">
+        <v>11482</v>
+      </c>
+      <c r="L45" s="12">
+        <v>13393</v>
+      </c>
+      <c r="M45" s="12">
+        <v>16924</v>
+      </c>
+      <c r="N45" s="12">
+        <v>21807</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="12">
+        <v>18356</v>
+      </c>
+      <c r="H46" s="12">
+        <v>23734</v>
+      </c>
+      <c r="I46" s="12">
+        <v>29460</v>
+      </c>
+      <c r="J46" s="12">
+        <v>36477</v>
+      </c>
+      <c r="K46" s="12">
+        <v>44151</v>
+      </c>
+      <c r="L46" s="12">
+        <v>59715</v>
+      </c>
+      <c r="M46" s="12">
+        <v>74398</v>
+      </c>
+      <c r="N46" s="12">
+        <v>95641</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="12">
+        <v>35452</v>
+      </c>
+      <c r="H47" s="12">
+        <v>57501</v>
+      </c>
+      <c r="I47" s="12">
+        <v>59726</v>
+      </c>
+      <c r="J47" s="12">
+        <v>74527</v>
+      </c>
+      <c r="K47" s="12">
+        <v>75245</v>
+      </c>
+      <c r="L47" s="12">
+        <v>89658</v>
+      </c>
+      <c r="M47" s="12">
+        <v>120758</v>
+      </c>
+      <c r="N47" s="12">
+        <v>132078</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B48" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="27">
+        <f>SUM(G42:G47)</f>
+        <v>193468</v>
+      </c>
+      <c r="H48" s="27">
+        <f t="shared" ref="H48:S48" si="13">SUM(H42:H47)</f>
+        <v>241086</v>
+      </c>
+      <c r="I48" s="27">
+        <f t="shared" si="13"/>
+        <v>258848</v>
+      </c>
+      <c r="J48" s="27">
+        <f t="shared" si="13"/>
+        <v>286556</v>
+      </c>
+      <c r="K48" s="27">
+        <f t="shared" si="13"/>
+        <v>301311</v>
+      </c>
+      <c r="L48" s="27">
+        <f t="shared" si="13"/>
+        <v>333779</v>
+      </c>
+      <c r="M48" s="27">
+        <f t="shared" si="13"/>
+        <v>364840</v>
+      </c>
+      <c r="N48" s="27">
+        <f t="shared" si="13"/>
+        <v>411976</v>
+      </c>
+      <c r="O48" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="12">
+        <v>6898</v>
+      </c>
+      <c r="H50" s="12">
+        <v>7390</v>
+      </c>
+      <c r="I50" s="12">
+        <v>8617</v>
+      </c>
+      <c r="J50" s="12">
+        <v>9382</v>
+      </c>
+      <c r="K50" s="12">
+        <v>12530</v>
+      </c>
+      <c r="L50" s="12">
+        <v>15163</v>
+      </c>
+      <c r="M50" s="12">
+        <v>19000</v>
+      </c>
+      <c r="N50" s="12">
+        <v>18095</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B51" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="12">
+        <v>24991</v>
+      </c>
+      <c r="H51" s="12">
+        <v>23035</v>
+      </c>
+      <c r="I51" s="12">
+        <v>20966</v>
+      </c>
+      <c r="J51" s="12">
+        <v>27362</v>
+      </c>
+      <c r="K51" s="12">
+        <v>23780</v>
+      </c>
+      <c r="L51" s="12">
+        <v>31969</v>
+      </c>
+      <c r="M51" s="12">
+        <v>27795</v>
+      </c>
+      <c r="N51" s="12">
+        <v>29906</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B52" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="12">
+        <v>33909</v>
+      </c>
+      <c r="H52" s="12">
+        <v>44479</v>
+      </c>
+      <c r="I52" s="12">
+        <v>32720</v>
+      </c>
+      <c r="J52" s="12">
+        <v>37206</v>
+      </c>
+      <c r="K52" s="12">
+        <v>39180</v>
+      </c>
+      <c r="L52" s="12">
+        <v>44141</v>
+      </c>
+      <c r="M52" s="12">
+        <v>48408</v>
+      </c>
+      <c r="N52" s="12">
+        <v>53813</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B53" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0</v>
+      </c>
+      <c r="I53" s="12">
+        <v>0</v>
+      </c>
+      <c r="J53" s="12">
+        <v>0</v>
+      </c>
+      <c r="K53" s="12">
+        <v>0</v>
+      </c>
+      <c r="L53" s="12">
+        <v>0</v>
+      </c>
+      <c r="M53" s="12">
+        <v>0</v>
+      </c>
+      <c r="N53" s="12">
+        <v>0</v>
+      </c>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="12">
+        <v>40557</v>
+      </c>
+      <c r="H54" s="12">
+        <v>76073</v>
+      </c>
+      <c r="I54" s="12">
+        <v>72242</v>
+      </c>
+      <c r="J54" s="12">
+        <v>66662</v>
+      </c>
+      <c r="K54" s="12">
+        <v>59578</v>
+      </c>
+      <c r="L54" s="12">
+        <v>50074</v>
+      </c>
+      <c r="M54" s="12">
+        <v>49781</v>
+      </c>
+      <c r="N54" s="12">
+        <v>47237</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B55" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" s="12">
+        <v>15116</v>
+      </c>
+      <c r="H55" s="12">
+        <v>17715</v>
+      </c>
+      <c r="I55" s="12">
+        <v>41585</v>
+      </c>
+      <c r="J55" s="12">
+        <v>43614</v>
+      </c>
+      <c r="K55" s="12">
+        <v>47939</v>
+      </c>
+      <c r="L55" s="12">
+        <v>50444</v>
+      </c>
+      <c r="M55" s="12">
+        <v>53314</v>
+      </c>
+      <c r="N55" s="12">
+        <v>56702</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B56" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G56" s="27">
+        <f t="shared" ref="G56:S56" si="14">SUM(G50:G55)</f>
+        <v>121471</v>
+      </c>
+      <c r="H56" s="27">
+        <f t="shared" si="14"/>
+        <v>168692</v>
+      </c>
+      <c r="I56" s="27">
+        <f t="shared" si="14"/>
+        <v>176130</v>
+      </c>
+      <c r="J56" s="27">
+        <f t="shared" si="14"/>
+        <v>184226</v>
+      </c>
+      <c r="K56" s="27">
+        <f t="shared" si="14"/>
+        <v>183007</v>
+      </c>
+      <c r="L56" s="27">
+        <f t="shared" si="14"/>
+        <v>191791</v>
+      </c>
+      <c r="M56" s="27">
+        <f t="shared" si="14"/>
+        <v>198298</v>
+      </c>
+      <c r="N56" s="27">
+        <f t="shared" si="14"/>
+        <v>205753</v>
+      </c>
+      <c r="O56" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B58" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="12">
+        <v>68178</v>
+      </c>
+      <c r="H58" s="12">
+        <v>69315</v>
+      </c>
+      <c r="I58" s="12">
+        <v>71223</v>
+      </c>
+      <c r="J58" s="12">
+        <v>78520</v>
+      </c>
+      <c r="K58" s="12">
+        <v>80552</v>
+      </c>
+      <c r="L58" s="12">
+        <v>83111</v>
+      </c>
+      <c r="M58" s="12">
+        <v>86939</v>
+      </c>
+      <c r="N58" s="12">
+        <v>93718</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B59" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G59" s="12">
+        <v>2282</v>
+      </c>
+      <c r="H59" s="12">
+        <v>2648</v>
+      </c>
+      <c r="I59" s="12">
+        <v>13682</v>
+      </c>
+      <c r="J59" s="12">
+        <v>24150</v>
+      </c>
+      <c r="K59" s="12">
+        <v>34566</v>
+      </c>
+      <c r="L59" s="12">
+        <v>57055</v>
+      </c>
+      <c r="M59" s="12">
+        <v>84281</v>
+      </c>
+      <c r="N59" s="12">
+        <v>118848</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B60" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="12">
+        <v>1537</v>
+      </c>
+      <c r="H60" s="12">
+        <v>431</v>
+      </c>
+      <c r="I60" s="12">
+        <v>-2187</v>
+      </c>
+      <c r="J60" s="12">
+        <v>-340</v>
+      </c>
+      <c r="K60" s="12">
+        <v>3186</v>
+      </c>
+      <c r="L60" s="12">
+        <v>1822</v>
+      </c>
+      <c r="M60" s="12">
+        <v>-4678</v>
+      </c>
+      <c r="N60" s="12">
+        <v>-6343</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B61" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G61" s="27">
+        <f>SUM(G58:G60)</f>
+        <v>71997</v>
+      </c>
+      <c r="H61" s="27">
+        <f t="shared" ref="H61:S61" si="15">SUM(H58:H60)</f>
+        <v>72394</v>
+      </c>
+      <c r="I61" s="27">
+        <f t="shared" si="15"/>
+        <v>82718</v>
+      </c>
+      <c r="J61" s="27">
+        <f t="shared" si="15"/>
+        <v>102330</v>
+      </c>
+      <c r="K61" s="27">
+        <f t="shared" si="15"/>
+        <v>118304</v>
+      </c>
+      <c r="L61" s="27">
+        <f t="shared" si="15"/>
+        <v>141988</v>
+      </c>
+      <c r="M61" s="27">
+        <f t="shared" si="15"/>
+        <v>166542</v>
+      </c>
+      <c r="N61" s="27">
+        <f t="shared" si="15"/>
+        <v>206223</v>
+      </c>
+      <c r="O61" s="27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G63" s="30">
+        <f t="shared" ref="G63:S63" si="16">ROUND(G48-(G56+G61), 3)</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8">
+        <v>2016</v>
+      </c>
+      <c r="H65" s="8">
+        <v>2017</v>
+      </c>
+      <c r="I65" s="8">
+        <v>2018</v>
+      </c>
+      <c r="J65" s="8">
+        <v>2019</v>
+      </c>
+      <c r="K65" s="8">
+        <v>2020</v>
+      </c>
+      <c r="L65" s="8">
+        <v>2021</v>
+      </c>
+      <c r="M65" s="8">
+        <v>2022</v>
+      </c>
+      <c r="N65" s="8">
+        <v>2023</v>
+      </c>
+      <c r="O65" s="11">
+        <v>2024</v>
+      </c>
+      <c r="P65" s="11">
+        <v>2025</v>
+      </c>
+      <c r="Q65" s="11">
+        <v>2026</v>
+      </c>
+      <c r="R65" s="11">
+        <v>2027</v>
+      </c>
+      <c r="S65" s="11">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>51</v>
+      </c>
+      <c r="H66" s="28">
+        <f>H27</f>
+        <v>19546</v>
+      </c>
+      <c r="I66" s="28">
+        <f t="shared" ref="I66:S66" si="17">I27</f>
+        <v>14636</v>
+      </c>
+      <c r="J66" s="28">
+        <f t="shared" si="17"/>
+        <v>38587</v>
+      </c>
+      <c r="K66" s="28">
+        <f t="shared" si="17"/>
+        <v>44293</v>
+      </c>
+      <c r="L66" s="28">
+        <f t="shared" si="17"/>
+        <v>59870</v>
+      </c>
+      <c r="M66" s="28">
+        <f t="shared" si="17"/>
+        <v>72436</v>
+      </c>
+      <c r="N66" s="28">
+        <f t="shared" si="17"/>
+        <v>72599</v>
+      </c>
+      <c r="O66" s="28">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="28">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="28">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="28">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="28">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>52</v>
+      </c>
+      <c r="H67" s="28">
+        <f>H29</f>
+        <v>8778</v>
+      </c>
+      <c r="I67" s="28">
+        <f t="shared" ref="I67:S67" si="18">I29</f>
+        <v>10261</v>
+      </c>
+      <c r="J67" s="28">
+        <f t="shared" si="18"/>
+        <v>11682</v>
+      </c>
+      <c r="K67" s="28">
+        <f t="shared" si="18"/>
+        <v>12796</v>
+      </c>
+      <c r="L67" s="28">
+        <f t="shared" si="18"/>
+        <v>11686</v>
+      </c>
+      <c r="M67" s="28">
+        <f t="shared" si="18"/>
+        <v>14460</v>
+      </c>
+      <c r="N67" s="28">
+        <f t="shared" si="18"/>
+        <v>13861</v>
+      </c>
+      <c r="O67" s="28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" s="28">
+        <f>H31</f>
+        <v>3266</v>
+      </c>
+      <c r="I68" s="28">
+        <f t="shared" ref="I68:S68" si="19">I31</f>
+        <v>3940</v>
+      </c>
+      <c r="J68" s="28">
+        <f t="shared" si="19"/>
+        <v>4652</v>
+      </c>
+      <c r="K68" s="28">
+        <f t="shared" si="19"/>
+        <v>5289</v>
+      </c>
+      <c r="L68" s="28">
+        <f t="shared" si="19"/>
+        <v>6118</v>
+      </c>
+      <c r="M68" s="28">
+        <f t="shared" si="19"/>
+        <v>7502</v>
+      </c>
+      <c r="N68" s="28">
+        <f t="shared" si="19"/>
+        <v>9611</v>
+      </c>
+      <c r="O68" s="28">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="28">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="28">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="28">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="28">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>53</v>
+      </c>
+      <c r="H69" s="28">
+        <f t="shared" ref="H69:S69" si="20">-1*(SUM(H42:H45)-SUM(G42:G45))</f>
+        <v>-20191</v>
+      </c>
+      <c r="I69" s="28">
+        <f t="shared" si="20"/>
+        <v>-9811</v>
+      </c>
+      <c r="J69" s="28">
+        <f t="shared" si="20"/>
+        <v>-5890</v>
+      </c>
+      <c r="K69" s="28">
+        <f t="shared" si="20"/>
+        <v>-6363</v>
+      </c>
+      <c r="L69" s="28">
+        <f t="shared" si="20"/>
+        <v>-2491</v>
+      </c>
+      <c r="M69" s="28">
+        <f t="shared" si="20"/>
+        <v>14722</v>
+      </c>
+      <c r="N69" s="28">
+        <f t="shared" si="20"/>
+        <v>-14573</v>
+      </c>
+      <c r="O69" s="28">
+        <f t="shared" si="20"/>
+        <v>184257</v>
+      </c>
+      <c r="P69" s="28">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="28">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="28">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S69" s="28">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>54</v>
+      </c>
+      <c r="H70" s="28">
+        <f>(SUM(H50:H52)-SUM(G50:G52))</f>
+        <v>9106</v>
+      </c>
+      <c r="I70" s="28">
+        <f t="shared" ref="I70:S70" si="21">(SUM(I50:I52)-SUM(H50:H52))</f>
+        <v>-12601</v>
+      </c>
+      <c r="J70" s="28">
+        <f t="shared" si="21"/>
+        <v>11647</v>
+      </c>
+      <c r="K70" s="28">
+        <f t="shared" si="21"/>
+        <v>1540</v>
+      </c>
+      <c r="L70" s="28">
+        <f t="shared" si="21"/>
+        <v>15783</v>
+      </c>
+      <c r="M70" s="28">
+        <f t="shared" si="21"/>
+        <v>3930</v>
+      </c>
+      <c r="N70" s="28">
+        <f t="shared" si="21"/>
+        <v>6611</v>
+      </c>
+      <c r="O70" s="28">
+        <f t="shared" si="21"/>
+        <v>-101814</v>
+      </c>
+      <c r="P70" s="28">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="28">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="28">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="28">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="H72" s="28">
+        <f>H55-G55</f>
+        <v>2599</v>
+      </c>
+      <c r="I72" s="28">
+        <f t="shared" ref="I72:S72" si="22">I55-H55</f>
+        <v>23870</v>
+      </c>
+      <c r="J72" s="28">
+        <f t="shared" si="22"/>
+        <v>2029</v>
+      </c>
+      <c r="K72" s="28">
+        <f t="shared" si="22"/>
+        <v>4325</v>
+      </c>
+      <c r="L72" s="28">
+        <f t="shared" si="22"/>
+        <v>2505</v>
+      </c>
+      <c r="M72" s="28">
+        <f t="shared" si="22"/>
+        <v>2870</v>
+      </c>
+      <c r="N72" s="28">
+        <f t="shared" si="22"/>
+        <v>3388</v>
+      </c>
+      <c r="O72" s="28">
+        <f t="shared" si="22"/>
+        <v>-56702</v>
+      </c>
+      <c r="P72" s="28">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="28">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="28">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="28">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B73" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H73" s="14">
+        <f>SUM(H66:H72)</f>
+        <v>23104</v>
+      </c>
+      <c r="I73" s="14">
+        <f t="shared" ref="I73:S73" si="23">SUM(I66:I72)</f>
+        <v>30295</v>
+      </c>
+      <c r="J73" s="14">
+        <f t="shared" si="23"/>
+        <v>62707</v>
+      </c>
+      <c r="K73" s="14">
+        <f t="shared" si="23"/>
+        <v>61880</v>
+      </c>
+      <c r="L73" s="14">
+        <f t="shared" si="23"/>
+        <v>93471</v>
+      </c>
+      <c r="M73" s="14">
+        <f t="shared" si="23"/>
+        <v>115920</v>
+      </c>
+      <c r="N73" s="14">
+        <f t="shared" si="23"/>
+        <v>91497</v>
+      </c>
+      <c r="O73" s="14">
+        <f t="shared" si="23"/>
+        <v>25741</v>
+      </c>
+      <c r="P73" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S73" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" s="28">
+        <f>-H89</f>
+        <v>-8129</v>
+      </c>
+      <c r="I75" s="28">
+        <f t="shared" ref="I75:S75" si="24">-I89</f>
+        <v>-11632</v>
+      </c>
+      <c r="J75" s="28">
+        <f t="shared" si="24"/>
+        <v>-13925</v>
+      </c>
+      <c r="K75" s="28">
+        <f t="shared" si="24"/>
+        <v>-15441</v>
+      </c>
+      <c r="L75" s="28">
+        <f t="shared" si="24"/>
+        <v>-20622</v>
+      </c>
+      <c r="M75" s="28">
+        <f t="shared" si="24"/>
+        <v>-23886</v>
+      </c>
+      <c r="N75" s="28">
+        <f t="shared" si="24"/>
+        <v>-28107</v>
+      </c>
+      <c r="O75" s="28">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="28">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="28">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="28">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S75" s="28">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H76" s="14">
+        <f t="shared" ref="H76:N76" si="25">IFERROR(H89, "NA")</f>
+        <v>8129</v>
+      </c>
+      <c r="I76" s="14">
+        <f t="shared" si="25"/>
+        <v>11632</v>
+      </c>
+      <c r="J76" s="14">
+        <f t="shared" si="25"/>
+        <v>13925</v>
+      </c>
+      <c r="K76" s="14">
+        <f t="shared" si="25"/>
+        <v>15441</v>
+      </c>
+      <c r="L76" s="14">
+        <f t="shared" si="25"/>
+        <v>20622</v>
+      </c>
+      <c r="M76" s="14">
+        <f t="shared" si="25"/>
+        <v>23886</v>
+      </c>
+      <c r="N76" s="14">
+        <f t="shared" si="25"/>
+        <v>28107</v>
+      </c>
+      <c r="O76" s="14">
+        <f t="shared" ref="O76:S76" si="26">IFERROR(O75, "NA")</f>
+        <v>0</v>
+      </c>
+      <c r="P76" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" s="28">
+        <f>H54-G54</f>
+        <v>35516</v>
+      </c>
+      <c r="I78" s="28">
+        <f t="shared" ref="I78:S78" si="27">I54-H54</f>
+        <v>-3831</v>
+      </c>
+      <c r="J78" s="28">
+        <f t="shared" si="27"/>
+        <v>-5580</v>
+      </c>
+      <c r="K78" s="28">
+        <f t="shared" si="27"/>
+        <v>-7084</v>
+      </c>
+      <c r="L78" s="28">
+        <f t="shared" si="27"/>
+        <v>-9504</v>
+      </c>
+      <c r="M78" s="28">
+        <f t="shared" si="27"/>
+        <v>-293</v>
+      </c>
+      <c r="N78" s="28">
+        <f t="shared" si="27"/>
+        <v>-2544</v>
+      </c>
+      <c r="O78" s="28">
+        <f t="shared" si="27"/>
+        <v>-47237</v>
+      </c>
+      <c r="P78" s="28">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="28">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R78" s="28">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S78" s="28">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>60</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B82" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H82" s="14">
+        <f>SUM(H78:H81)</f>
+        <v>35516</v>
+      </c>
+      <c r="I82" s="14">
+        <f t="shared" ref="I82:S82" si="28">SUM(I78:I81)</f>
+        <v>-3831</v>
+      </c>
+      <c r="J82" s="14">
+        <f t="shared" si="28"/>
+        <v>-5580</v>
+      </c>
+      <c r="K82" s="14">
+        <f t="shared" si="28"/>
+        <v>-7084</v>
+      </c>
+      <c r="L82" s="14">
+        <f t="shared" si="28"/>
+        <v>-9504</v>
+      </c>
+      <c r="M82" s="14">
+        <f t="shared" si="28"/>
+        <v>-293</v>
+      </c>
+      <c r="N82" s="14">
+        <f t="shared" si="28"/>
+        <v>-2544</v>
+      </c>
+      <c r="O82" s="14">
+        <f t="shared" si="28"/>
+        <v>-47237</v>
+      </c>
+      <c r="P82" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R82" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S82" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B84" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H84" s="14">
+        <f>H82+H76+H73</f>
+        <v>66749</v>
+      </c>
+      <c r="I84" s="14">
+        <f t="shared" ref="I84:S84" si="29">I82+I76+I73</f>
+        <v>38096</v>
+      </c>
+      <c r="J84" s="14">
+        <f t="shared" si="29"/>
+        <v>71052</v>
+      </c>
+      <c r="K84" s="14">
+        <f t="shared" si="29"/>
+        <v>70237</v>
+      </c>
+      <c r="L84" s="14">
+        <f t="shared" si="29"/>
+        <v>104589</v>
+      </c>
+      <c r="M84" s="14">
+        <f t="shared" si="29"/>
+        <v>139513</v>
+      </c>
+      <c r="N84" s="14">
+        <f t="shared" si="29"/>
+        <v>117060</v>
+      </c>
+      <c r="O84" s="14">
+        <f t="shared" si="29"/>
+        <v>-21496</v>
+      </c>
+      <c r="P84" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R84" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S84" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8">
+        <v>2016</v>
+      </c>
+      <c r="H86" s="8">
+        <v>2017</v>
+      </c>
+      <c r="I86" s="8">
+        <v>2018</v>
+      </c>
+      <c r="J86" s="8">
+        <v>2019</v>
+      </c>
+      <c r="K86" s="8">
+        <v>2020</v>
+      </c>
+      <c r="L86" s="8">
+        <v>2021</v>
+      </c>
+      <c r="M86" s="8">
+        <v>2022</v>
+      </c>
+      <c r="N86" s="8">
+        <v>2023</v>
+      </c>
+      <c r="O86" s="11">
+        <v>2024</v>
+      </c>
+      <c r="P86" s="11">
+        <v>2025</v>
+      </c>
+      <c r="Q86" s="11">
+        <v>2026</v>
+      </c>
+      <c r="R86" s="11">
+        <v>2027</v>
+      </c>
+      <c r="S86" s="11">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B87" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="32"/>
+      <c r="P87" s="32"/>
+      <c r="Q87" s="32"/>
+      <c r="R87" s="32"/>
+      <c r="S87" s="32"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B88" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H88" s="28">
+        <f>G91</f>
+        <v>18356</v>
+      </c>
+      <c r="I88" s="28">
+        <f t="shared" ref="I88:S88" si="30">H91</f>
+        <v>2306</v>
+      </c>
+      <c r="J88" s="28">
+        <f t="shared" si="30"/>
+        <v>-15285</v>
+      </c>
+      <c r="K88" s="28">
+        <f t="shared" si="30"/>
+        <v>-36690</v>
+      </c>
+      <c r="L88" s="28">
+        <f t="shared" si="30"/>
+        <v>-64446</v>
+      </c>
+      <c r="M88" s="28">
+        <f t="shared" si="30"/>
+        <v>-95175</v>
+      </c>
+      <c r="N88" s="28">
+        <f t="shared" si="30"/>
+        <v>-130949</v>
+      </c>
+      <c r="O88" s="28">
+        <f t="shared" si="30"/>
+        <v>-171093</v>
+      </c>
+      <c r="P88" s="28">
+        <f t="shared" si="30"/>
+        <v>-171093</v>
+      </c>
+      <c r="Q88" s="28">
+        <f t="shared" si="30"/>
+        <v>-171093</v>
+      </c>
+      <c r="R88" s="28">
+        <f t="shared" si="30"/>
+        <v>-171093</v>
+      </c>
+      <c r="S88" s="28">
+        <f t="shared" si="30"/>
+        <v>-171093</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B89" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H89" s="28">
+        <v>8129</v>
+      </c>
+      <c r="I89" s="28">
+        <v>11632</v>
+      </c>
+      <c r="J89" s="28">
+        <v>13925</v>
+      </c>
+      <c r="K89" s="28">
+        <v>15441</v>
+      </c>
+      <c r="L89" s="28">
+        <v>20622</v>
+      </c>
+      <c r="M89" s="28">
+        <v>23886</v>
+      </c>
+      <c r="N89" s="28">
+        <v>28107</v>
+      </c>
+      <c r="O89" s="28"/>
+      <c r="P89" s="28"/>
+      <c r="Q89" s="28"/>
+      <c r="R89" s="28"/>
+      <c r="S89" s="28"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B90" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H90" s="28">
+        <v>-24179</v>
+      </c>
+      <c r="I90" s="28">
+        <v>-29223</v>
+      </c>
+      <c r="J90" s="28">
+        <v>-35330</v>
+      </c>
+      <c r="K90" s="28">
+        <v>-43197</v>
+      </c>
+      <c r="L90" s="28">
+        <v>-51351</v>
+      </c>
+      <c r="M90" s="28">
+        <v>-59660</v>
+      </c>
+      <c r="N90" s="28">
+        <v>-68251</v>
+      </c>
+      <c r="O90" s="28"/>
+      <c r="P90" s="28"/>
+      <c r="Q90" s="28"/>
+      <c r="R90" s="28"/>
+      <c r="S90" s="28"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B91" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G91" s="35">
+        <v>18356</v>
+      </c>
+      <c r="H91" s="14">
+        <f>SUM(H88:H90)</f>
+        <v>2306</v>
+      </c>
+      <c r="I91" s="14">
+        <f>SUM(I88:I90)</f>
+        <v>-15285</v>
+      </c>
+      <c r="J91" s="14">
+        <f t="shared" ref="J91:S91" si="31">SUM(J88:J90)</f>
+        <v>-36690</v>
+      </c>
+      <c r="K91" s="14">
+        <f t="shared" si="31"/>
+        <v>-64446</v>
+      </c>
+      <c r="L91" s="14">
+        <f t="shared" si="31"/>
+        <v>-95175</v>
+      </c>
+      <c r="M91" s="14">
+        <f t="shared" si="31"/>
+        <v>-130949</v>
+      </c>
+      <c r="N91" s="14">
+        <f t="shared" si="31"/>
+        <v>-171093</v>
+      </c>
+      <c r="O91" s="14">
+        <f t="shared" si="31"/>
+        <v>-171093</v>
+      </c>
+      <c r="P91" s="14">
+        <f t="shared" si="31"/>
+        <v>-171093</v>
+      </c>
+      <c r="Q91" s="14">
+        <f t="shared" si="31"/>
+        <v>-171093</v>
+      </c>
+      <c r="R91" s="14">
+        <f t="shared" si="31"/>
+        <v>-171093</v>
+      </c>
+      <c r="S91" s="14">
+        <f t="shared" si="31"/>
+        <v>-171093</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B93" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G93" s="35"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="14"/>
+      <c r="Q93" s="14"/>
+      <c r="R93" s="14"/>
+      <c r="S93" s="14"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B95" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="32"/>
+      <c r="L95" s="32"/>
+      <c r="M95" s="32"/>
+      <c r="N95" s="32"/>
+      <c r="O95" s="32"/>
+      <c r="P95" s="32"/>
+      <c r="Q95" s="32"/>
+      <c r="R95" s="32"/>
+      <c r="S95" s="32"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B97" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B98" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B100" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="32"/>
+      <c r="K100" s="32"/>
+      <c r="L100" s="32"/>
+      <c r="M100" s="32"/>
+      <c r="N100" s="32"/>
+      <c r="O100" s="32"/>
+      <c r="P100" s="32"/>
+      <c r="Q100" s="32"/>
+      <c r="R100" s="32"/>
+      <c r="S100" s="32"/>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B101" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B102" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B103" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B104" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B105" s="36"/>
+    </row>
+    <row r="106" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B106" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="32"/>
+      <c r="K106" s="32"/>
+      <c r="L106" s="32"/>
+      <c r="M106" s="32"/>
+      <c r="N106" s="32"/>
+      <c r="O106" s="32"/>
+      <c r="P106" s="32"/>
+      <c r="Q106" s="32"/>
+      <c r="R106" s="32"/>
+      <c r="S106" s="32"/>
+    </row>
+    <row r="107" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B107" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B108" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B109" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B110" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="111" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B111" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B113" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="32"/>
+      <c r="K113" s="32"/>
+      <c r="L113" s="32"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="32"/>
+      <c r="O113" s="32"/>
+      <c r="P113" s="32"/>
+      <c r="Q113" s="32"/>
+      <c r="R113" s="32"/>
+      <c r="S113" s="32"/>
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B114" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B115" s="36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B116" s="36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B117" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B118" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B120" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B121" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B122" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B123" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="124" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B124" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B126" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="32"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="32"/>
+      <c r="K126" s="32"/>
+      <c r="L126" s="32"/>
+      <c r="M126" s="32"/>
+      <c r="N126" s="32"/>
+      <c r="O126" s="32"/>
+      <c r="P126" s="32"/>
+      <c r="Q126" s="32"/>
+      <c r="R126" s="32"/>
+      <c r="S126" s="32"/>
+    </row>
+    <row r="127" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B127" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="128" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B128" s="41"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="44"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8C556D-2F97-4635-B1A6-C1AF6F15D13B}">
+  <dimension ref="A2:S77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="45" t="e">
+        <f ca="1">S77</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="46">
+        <f ca="1">TODAY()</f>
+        <v>45218</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="45">
+        <v>410.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="46">
+        <v>45107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="47" t="e">
+        <f ca="1">I4/I5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="G10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="48"/>
+      <c r="O10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q10" s="48"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="G11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="48"/>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" s="48"/>
+      <c r="O11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q11" s="48"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="G12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="48"/>
+      <c r="O12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q12" s="48"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" s="48"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="G15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="48"/>
+      <c r="K15" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="48"/>
+      <c r="O15" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q15" s="48"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="G16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="48"/>
+      <c r="K16" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" s="48"/>
+      <c r="O16" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="50"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
+        <v>2016</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" ref="H18:S18" si="0">G18+1</f>
+        <v>2017</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="J18" s="8">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="Q18" s="11">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="R18" s="11">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="S18" s="11">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51">
+        <f>'[1]Historicals and 3SM'!G17</f>
+        <v>85320</v>
+      </c>
+      <c r="H19" s="51">
+        <f>'[1]Historicals and 3SM'!H17</f>
+        <v>89950</v>
+      </c>
+      <c r="I19" s="51">
+        <f>'[1]Historicals and 3SM'!I17</f>
+        <v>110360</v>
+      </c>
+      <c r="J19" s="51">
+        <f>'[1]Historicals and 3SM'!J17</f>
+        <v>125843</v>
+      </c>
+      <c r="K19" s="51">
+        <f>'[1]Historicals and 3SM'!K17</f>
+        <v>143015</v>
+      </c>
+      <c r="L19" s="51">
+        <f>'[1]Historicals and 3SM'!L17</f>
+        <v>168088</v>
+      </c>
+      <c r="M19" s="51">
+        <f>'[1]Historicals and 3SM'!M17</f>
+        <v>198270</v>
+      </c>
+      <c r="N19" s="52">
+        <f>[2]Estimates!K5</f>
+        <v>51794.5</v>
+      </c>
+      <c r="O19" s="52">
+        <f>[2]Estimates!L5</f>
+        <v>77970.100000000006</v>
+      </c>
+      <c r="P19" s="52">
+        <f>[2]Estimates!M5</f>
+        <v>93531.8</v>
+      </c>
+      <c r="Q19" s="53">
+        <f>[2]Estimates!N5</f>
+        <v>111484</v>
+      </c>
+      <c r="R19" s="53">
+        <f>[2]Estimates!O5</f>
+        <v>139956</v>
+      </c>
+      <c r="S19" s="53">
+        <f>[2]Estimates!P5</f>
+        <v>135485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56">
+        <f t="shared" ref="H20:S20" si="1">H19/G19-1</f>
+        <v>5.4266291608063844E-2</v>
+      </c>
+      <c r="I20" s="56">
+        <f t="shared" si="1"/>
+        <v>0.22690383546414683</v>
+      </c>
+      <c r="J20" s="56">
+        <f t="shared" si="1"/>
+        <v>0.14029539688292858</v>
+      </c>
+      <c r="K20" s="56">
+        <f t="shared" si="1"/>
+        <v>0.13645574247276371</v>
+      </c>
+      <c r="L20" s="56">
+        <f t="shared" si="1"/>
+        <v>0.17531727441177503</v>
+      </c>
+      <c r="M20" s="56">
+        <f t="shared" si="1"/>
+        <v>0.17956070629670173</v>
+      </c>
+      <c r="N20" s="56">
+        <f t="shared" si="1"/>
+        <v>-0.73876784183184552</v>
+      </c>
+      <c r="O20" s="56">
+        <f t="shared" si="1"/>
+        <v>0.50537412273503945</v>
+      </c>
+      <c r="P20" s="56">
+        <f t="shared" si="1"/>
+        <v>0.19958548212712302</v>
+      </c>
+      <c r="Q20" s="56">
+        <f t="shared" si="1"/>
+        <v>0.19193685997703458</v>
+      </c>
+      <c r="R20" s="56">
+        <f t="shared" si="1"/>
+        <v>0.25539090811237486</v>
+      </c>
+      <c r="S20" s="56">
+        <f t="shared" si="1"/>
+        <v>-3.1945754379947955E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51">
+        <f>'[1]Historicals and 3SM'!G22</f>
+        <v>20182</v>
+      </c>
+      <c r="H22" s="51">
+        <f>'[1]Historicals and 3SM'!H22</f>
+        <v>22326</v>
+      </c>
+      <c r="I22" s="51">
+        <f>'[1]Historicals and 3SM'!I22</f>
+        <v>35058</v>
+      </c>
+      <c r="J22" s="51">
+        <f>'[1]Historicals and 3SM'!J22</f>
+        <v>42959</v>
+      </c>
+      <c r="K22" s="51">
+        <f>'[1]Historicals and 3SM'!K22</f>
+        <v>52959</v>
+      </c>
+      <c r="L22" s="51">
+        <f>'[1]Historicals and 3SM'!L22</f>
+        <v>69916</v>
+      </c>
+      <c r="M22" s="51">
+        <f>'[1]Historicals and 3SM'!M22</f>
+        <v>83383</v>
+      </c>
+      <c r="N22" s="52">
+        <f>[2]Estimates!K9</f>
+        <v>28181.8</v>
+      </c>
+      <c r="O22" s="52">
+        <f>[2]Estimates!L9</f>
+        <v>45402.400000000001</v>
+      </c>
+      <c r="P22" s="52">
+        <f>[2]Estimates!M9</f>
+        <v>54401</v>
+      </c>
+      <c r="Q22" s="53">
+        <f>[2]Estimates!N9</f>
+        <v>65999.600000000006</v>
+      </c>
+      <c r="R22" s="53">
+        <f>[2]Estimates!O9</f>
+        <v>83947.3</v>
+      </c>
+      <c r="S22" s="53">
+        <f>[2]Estimates!P9</f>
+        <v>81477.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56">
+        <f t="shared" ref="H23:S23" si="2">H22/H19</f>
+        <v>0.24820455808782657</v>
+      </c>
+      <c r="I23" s="56">
+        <f t="shared" si="2"/>
+        <v>0.31766944545125048</v>
+      </c>
+      <c r="J23" s="56">
+        <f t="shared" si="2"/>
+        <v>0.3413698020549415</v>
+      </c>
+      <c r="K23" s="56">
+        <f t="shared" si="2"/>
+        <v>0.37030381428521486</v>
+      </c>
+      <c r="L23" s="56">
+        <f t="shared" si="2"/>
+        <v>0.41594878872971303</v>
+      </c>
+      <c r="M23" s="56">
+        <f t="shared" si="2"/>
+        <v>0.4205527815604983</v>
+      </c>
+      <c r="N23" s="56">
+        <f t="shared" si="2"/>
+        <v>0.54410796513143289</v>
+      </c>
+      <c r="O23" s="56">
+        <f t="shared" si="2"/>
+        <v>0.58230526830156681</v>
+      </c>
+      <c r="P23" s="56">
+        <f t="shared" si="2"/>
+        <v>0.581631060238336</v>
+      </c>
+      <c r="Q23" s="56">
+        <f t="shared" si="2"/>
+        <v>0.59200961572961153</v>
+      </c>
+      <c r="R23" s="56">
+        <f t="shared" si="2"/>
+        <v>0.59981208379776507</v>
+      </c>
+      <c r="S23" s="56">
+        <f t="shared" si="2"/>
+        <v>0.60137801232608779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8">
+        <f t="shared" ref="H25:M25" si="3">H18</f>
+        <v>2017</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="3"/>
+        <v>2018</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="3"/>
+        <v>2020</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="3"/>
+        <v>2021</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="3"/>
+        <v>2022</v>
+      </c>
+      <c r="N25" s="11">
+        <f t="shared" ref="N25:S25" si="4">M25+1</f>
+        <v>2023</v>
+      </c>
+      <c r="O25" s="11">
+        <f t="shared" si="4"/>
+        <v>2024</v>
+      </c>
+      <c r="P25" s="11">
+        <f t="shared" si="4"/>
+        <v>2025</v>
+      </c>
+      <c r="Q25" s="11">
+        <f t="shared" si="4"/>
+        <v>2026</v>
+      </c>
+      <c r="R25" s="11">
+        <f t="shared" si="4"/>
+        <v>2027</v>
+      </c>
+      <c r="S25" s="11">
+        <f t="shared" si="4"/>
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="H26" s="52">
+        <f>'[1]Historicals and 3SM'!H67</f>
+        <v>8778</v>
+      </c>
+      <c r="I26" s="52">
+        <f>'[1]Historicals and 3SM'!I67</f>
+        <v>10261</v>
+      </c>
+      <c r="J26" s="52">
+        <f>'[1]Historicals and 3SM'!J67</f>
+        <v>11682</v>
+      </c>
+      <c r="K26" s="52">
+        <f>'[1]Historicals and 3SM'!K67</f>
+        <v>12796</v>
+      </c>
+      <c r="L26" s="52">
+        <f>'[1]Historicals and 3SM'!L67</f>
+        <v>11686</v>
+      </c>
+      <c r="M26" s="52">
+        <f>'[1]Historicals and 3SM'!M67</f>
+        <v>14460</v>
+      </c>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="57"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56">
+        <f t="shared" ref="I27:M27" si="5">I26/I19</f>
+        <v>9.2977528089887643E-2</v>
+      </c>
+      <c r="J27" s="56">
+        <f t="shared" si="5"/>
+        <v>9.2829954784930432E-2</v>
+      </c>
+      <c r="K27" s="56">
+        <f t="shared" si="5"/>
+        <v>8.9473132188931229E-2</v>
+      </c>
+      <c r="L27" s="56">
+        <f t="shared" si="5"/>
+        <v>6.9523106943981727E-2</v>
+      </c>
+      <c r="M27" s="56">
+        <f t="shared" si="5"/>
+        <v>7.2930851868663937E-2</v>
+      </c>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51">
+        <f>'[1]Historicals and 3SM'!H89*-1</f>
+        <v>-8129</v>
+      </c>
+      <c r="I29" s="51">
+        <f>'[1]Historicals and 3SM'!I89*-1</f>
+        <v>-11632</v>
+      </c>
+      <c r="J29" s="51">
+        <f>'[1]Historicals and 3SM'!J89*-1</f>
+        <v>-13925</v>
+      </c>
+      <c r="K29" s="51">
+        <f>'[1]Historicals and 3SM'!K89*-1</f>
+        <v>-15441</v>
+      </c>
+      <c r="L29" s="51">
+        <f>'[1]Historicals and 3SM'!L89*-1</f>
+        <v>-20622</v>
+      </c>
+      <c r="M29" s="51">
+        <f>'[1]Historicals and 3SM'!M89*-1</f>
+        <v>-23886</v>
+      </c>
+      <c r="N29" s="59"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="54"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56">
+        <f t="shared" ref="I30:M30" si="6">I29/I19</f>
+        <v>-0.10540050743022834</v>
+      </c>
+      <c r="J30" s="56">
+        <f t="shared" si="6"/>
+        <v>-0.11065375110256431</v>
+      </c>
+      <c r="K30" s="56">
+        <f t="shared" si="6"/>
+        <v>-0.10796769569625564</v>
+      </c>
+      <c r="L30" s="56">
+        <f t="shared" si="6"/>
+        <v>-0.12268573604302509</v>
+      </c>
+      <c r="M30" s="56">
+        <f t="shared" si="6"/>
+        <v>-0.12047208352246935</v>
+      </c>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="57"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51">
+        <f>SUM('[1]Historicals and 3SM'!G42:G45)</f>
+        <v>139660</v>
+      </c>
+      <c r="I32" s="51">
+        <f>-(11/12)*[2]CFS!G32+(1/12)*[2]CFS!H32</f>
+        <v>845.33333333333326</v>
+      </c>
+      <c r="J32" s="51">
+        <f>-(11/12)*[2]CFS!H32+(1/12)*[2]CFS!I32</f>
+        <v>-715.83333333333337</v>
+      </c>
+      <c r="K32" s="51">
+        <f>-(11/12)*[2]CFS!I32+(1/12)*[2]CFS!J32</f>
+        <v>364.16666666666663</v>
+      </c>
+      <c r="L32" s="51">
+        <f>-(11/12)*[2]CFS!J32+(1/12)*[2]CFS!K32</f>
+        <v>2898.8333333333335</v>
+      </c>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56">
+        <f t="shared" ref="I33:L33" si="7">I32/I19</f>
+        <v>7.6597801135677174E-3</v>
+      </c>
+      <c r="J33" s="56">
+        <f t="shared" si="7"/>
+        <v>-5.6883047395034558E-3</v>
+      </c>
+      <c r="K33" s="56">
+        <f t="shared" si="7"/>
+        <v>2.5463529466606062E-3</v>
+      </c>
+      <c r="L33" s="56">
+        <f t="shared" si="7"/>
+        <v>1.7245926736788667E-2</v>
+      </c>
+      <c r="M33" s="56"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="54"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56">
+        <f t="shared" ref="I34:L34" si="8">I32/(I19-H19)</f>
+        <v>4.1417605748815936E-2</v>
+      </c>
+      <c r="J34" s="56">
+        <f t="shared" si="8"/>
+        <v>-4.6233503412344723E-2</v>
+      </c>
+      <c r="K34" s="56">
+        <f t="shared" si="8"/>
+        <v>2.1207003649351654E-2</v>
+      </c>
+      <c r="L34" s="56">
+        <f t="shared" si="8"/>
+        <v>0.1156157353860062</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <f>N35+1</f>
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <f t="shared" ref="P35:S36" si="9">O35+1</f>
+        <v>3</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8">
+        <f>H25</f>
+        <v>2017</v>
+      </c>
+      <c r="I36" s="8">
+        <f t="shared" ref="G36:O36" si="10">H36+1</f>
+        <v>2018</v>
+      </c>
+      <c r="J36" s="8">
+        <f t="shared" si="10"/>
+        <v>2019</v>
+      </c>
+      <c r="K36" s="8">
+        <f t="shared" si="10"/>
+        <v>2020</v>
+      </c>
+      <c r="L36" s="8">
+        <f t="shared" si="10"/>
+        <v>2021</v>
+      </c>
+      <c r="M36" s="8">
+        <f t="shared" si="10"/>
+        <v>2022</v>
+      </c>
+      <c r="N36" s="11">
+        <f t="shared" si="10"/>
+        <v>2023</v>
+      </c>
+      <c r="O36" s="11">
+        <f t="shared" si="10"/>
+        <v>2024</v>
+      </c>
+      <c r="P36" s="11">
+        <f t="shared" si="9"/>
+        <v>2025</v>
+      </c>
+      <c r="Q36" s="11">
+        <f t="shared" si="9"/>
+        <v>2026</v>
+      </c>
+      <c r="R36" s="11">
+        <f t="shared" si="9"/>
+        <v>2027</v>
+      </c>
+      <c r="S36" s="11">
+        <f t="shared" si="9"/>
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60">
+        <f t="shared" ref="G37:M37" si="11">H19</f>
+        <v>89950</v>
+      </c>
+      <c r="I37" s="60">
+        <f t="shared" si="11"/>
+        <v>110360</v>
+      </c>
+      <c r="J37" s="60">
+        <f t="shared" si="11"/>
+        <v>125843</v>
+      </c>
+      <c r="K37" s="60">
+        <f t="shared" si="11"/>
+        <v>143015</v>
+      </c>
+      <c r="L37" s="60">
+        <f t="shared" si="11"/>
+        <v>168088</v>
+      </c>
+      <c r="M37" s="60">
+        <f t="shared" si="11"/>
+        <v>198270</v>
+      </c>
+      <c r="N37" s="61">
+        <f ca="1">M37*(1+N38)</f>
+        <v>373365.56880804023</v>
+      </c>
+      <c r="O37" s="61">
+        <f t="shared" ref="O37:S37" ca="1" si="12">N37*(1+O38)</f>
+        <v>562054.86560387257</v>
+      </c>
+      <c r="P37" s="61">
+        <f t="shared" ca="1" si="12"/>
+        <v>674232.85693731683</v>
+      </c>
+      <c r="Q37" s="61">
+        <f t="shared" ca="1" si="12"/>
+        <v>775181.46443146013</v>
+      </c>
+      <c r="R37" s="61">
+        <f t="shared" ca="1" si="12"/>
+        <v>852592.50201736286</v>
+      </c>
+      <c r="S37" s="61">
+        <f t="shared" ca="1" si="12"/>
+        <v>895222.12711823103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="54"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56" t="e">
+        <f t="shared" ref="H38:M38" si="13">H37/G37-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="56">
+        <f t="shared" si="13"/>
+        <v>0.22690383546414683</v>
+      </c>
+      <c r="J38" s="56">
+        <f t="shared" si="13"/>
+        <v>0.14029539688292858</v>
+      </c>
+      <c r="K38" s="56">
+        <f t="shared" si="13"/>
+        <v>0.13645574247276371</v>
+      </c>
+      <c r="L38" s="56">
+        <f t="shared" si="13"/>
+        <v>0.17531727441177503</v>
+      </c>
+      <c r="M38" s="56">
+        <f t="shared" si="13"/>
+        <v>0.17956070629670173</v>
+      </c>
+      <c r="N38" s="56">
+        <f ca="1">OFFSET(N38,$E$10,0)</f>
+        <v>0.88311680439824602</v>
+      </c>
+      <c r="O38" s="56">
+        <f t="shared" ref="O38:S38" ca="1" si="14">OFFSET(O38,$E$10,0)</f>
+        <v>0.50537412273503945</v>
+      </c>
+      <c r="P38" s="56">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.19958548212712302</v>
+      </c>
+      <c r="Q38" s="56">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.14972365475141533</v>
+      </c>
+      <c r="R38" s="56">
+        <f t="shared" ca="1" si="14"/>
+        <v>9.9861827375707646E-2</v>
+      </c>
+      <c r="S38" s="56">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="N39" s="63">
+        <f>N40</f>
+        <v>-0.73876784183184552</v>
+      </c>
+      <c r="O39" s="63">
+        <f>O40*$I$10</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="63">
+        <f>P40*$I$10</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="63">
+        <f>P39-($P$39-$S$39)/($S$36-$P$36)</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="63">
+        <f>Q39-($P$39-$S$39)/($S$36-$P$36)</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="63">
+        <f>I11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>125</v>
+      </c>
+      <c r="N40" s="63">
+        <f>N20</f>
+        <v>-0.73876784183184552</v>
+      </c>
+      <c r="O40" s="63">
+        <f t="shared" ref="O40:P40" si="15">O20</f>
+        <v>0.50537412273503945</v>
+      </c>
+      <c r="P40" s="63">
+        <f t="shared" si="15"/>
+        <v>0.19958548212712302</v>
+      </c>
+      <c r="Q40" s="63">
+        <f>P40-($P$40-$S$40)/($S$36-$P$36)</f>
+        <v>0.1330569880847487</v>
+      </c>
+      <c r="R40" s="63">
+        <f>Q40-($P$40-$S$40)/($S$36-$P$36)</f>
+        <v>6.6528494042374361E-2</v>
+      </c>
+      <c r="S40" s="63">
+        <f>M11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41" s="63">
+        <f>N40</f>
+        <v>-0.73876784183184552</v>
+      </c>
+      <c r="O41" s="63">
+        <f>O40*$Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="63">
+        <f>P40*$Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="63">
+        <f>P41-($P$41-$S$41)/($S$36-$P$36)</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="63">
+        <f>Q41-($P$41-$S$41)/($S$36-$P$36)</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="63">
+        <f>Q11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60">
+        <f t="shared" ref="G43:M43" si="16">H22</f>
+        <v>22326</v>
+      </c>
+      <c r="I43" s="60">
+        <f t="shared" si="16"/>
+        <v>35058</v>
+      </c>
+      <c r="J43" s="60">
+        <f t="shared" si="16"/>
+        <v>42959</v>
+      </c>
+      <c r="K43" s="60">
+        <f t="shared" si="16"/>
+        <v>52959</v>
+      </c>
+      <c r="L43" s="60">
+        <f t="shared" si="16"/>
+        <v>69916</v>
+      </c>
+      <c r="M43" s="60">
+        <f t="shared" si="16"/>
+        <v>83383</v>
+      </c>
+      <c r="N43" s="61">
+        <f ca="1">N44*N37</f>
+        <v>203151.17989428277</v>
+      </c>
+      <c r="O43" s="61">
+        <f t="shared" ref="O43:S43" ca="1" si="17">O44*O37</f>
+        <v>327287.50931566412</v>
+      </c>
+      <c r="P43" s="61">
+        <f t="shared" ca="1" si="17"/>
+        <v>392154.77142797387</v>
+      </c>
+      <c r="Q43" s="61">
+        <f t="shared" ca="1" si="17"/>
+        <v>450869.61703437608</v>
+      </c>
+      <c r="R43" s="61">
+        <f t="shared" ca="1" si="17"/>
+        <v>495894.28089961439</v>
+      </c>
+      <c r="S43" s="61">
+        <f t="shared" ca="1" si="17"/>
+        <v>520688.99494459509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="54"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56">
+        <f t="shared" ref="H44:M44" si="18">H43/H19</f>
+        <v>0.24820455808782657</v>
+      </c>
+      <c r="I44" s="56">
+        <f t="shared" si="18"/>
+        <v>0.31766944545125048</v>
+      </c>
+      <c r="J44" s="56">
+        <f t="shared" si="18"/>
+        <v>0.3413698020549415</v>
+      </c>
+      <c r="K44" s="56">
+        <f t="shared" si="18"/>
+        <v>0.37030381428521486</v>
+      </c>
+      <c r="L44" s="56">
+        <f t="shared" si="18"/>
+        <v>0.41594878872971303</v>
+      </c>
+      <c r="M44" s="56">
+        <f t="shared" si="18"/>
+        <v>0.4205527815604983</v>
+      </c>
+      <c r="N44" s="56">
+        <f ca="1">OFFSET(N44,$E$11,0)</f>
+        <v>0.54410796513143289</v>
+      </c>
+      <c r="O44" s="56">
+        <f t="shared" ref="O44:S44" ca="1" si="19">OFFSET(O44,$E$11,0)</f>
+        <v>0.58230526830156681</v>
+      </c>
+      <c r="P44" s="56">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.581631060238336</v>
+      </c>
+      <c r="Q44" s="56">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.581631060238336</v>
+      </c>
+      <c r="R44" s="56">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.581631060238336</v>
+      </c>
+      <c r="S44" s="56">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.581631060238336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="54"/>
+      <c r="N45" s="63">
+        <f>N46</f>
+        <v>0.54410796513143289</v>
+      </c>
+      <c r="O45" s="63">
+        <f>O46*$I$12</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="63">
+        <f t="shared" ref="P45:S45" si="20">P46*$I$12</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="63">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="63">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="63">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="54"/>
+      <c r="N46" s="63">
+        <f>N23</f>
+        <v>0.54410796513143289</v>
+      </c>
+      <c r="O46" s="63">
+        <f t="shared" ref="O46:P46" si="21">O23</f>
+        <v>0.58230526830156681</v>
+      </c>
+      <c r="P46" s="63">
+        <f t="shared" si="21"/>
+        <v>0.581631060238336</v>
+      </c>
+      <c r="Q46" s="63">
+        <f>P46</f>
+        <v>0.581631060238336</v>
+      </c>
+      <c r="R46" s="63">
+        <f t="shared" ref="R46:S46" si="22">Q46</f>
+        <v>0.581631060238336</v>
+      </c>
+      <c r="S46" s="63">
+        <f t="shared" si="22"/>
+        <v>0.581631060238336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="54"/>
+      <c r="N47" s="63">
+        <f>N46</f>
+        <v>0.54410796513143289</v>
+      </c>
+      <c r="O47" s="63">
+        <f>O46*$Q$12</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="63">
+        <f t="shared" ref="P47:S47" si="23">P46*$Q$12</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="63">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="63">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="63">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="N49" s="61">
+        <f ca="1">N50*N43</f>
+        <v>7303.3744327833574</v>
+      </c>
+      <c r="O49" s="61">
+        <f t="shared" ref="O49:S49" ca="1" si="24">O50*O43</f>
+        <v>9412.9041394659835</v>
+      </c>
+      <c r="P49" s="61">
+        <f t="shared" ca="1" si="24"/>
+        <v>8458.8820980458459</v>
+      </c>
+      <c r="Q49" s="61">
+        <f t="shared" ca="1" si="24"/>
+        <v>6483.5845605843942</v>
+      </c>
+      <c r="R49" s="61">
+        <f t="shared" ca="1" si="24"/>
+        <v>3565.523581374639</v>
+      </c>
+      <c r="S49" s="61">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B50" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="54"/>
+      <c r="N50" s="63">
+        <f>[2]Taxes!W45</f>
+        <v>3.5950440635313753E-2</v>
+      </c>
+      <c r="O50" s="63">
+        <f>N50+($S$50-$N$50)/($S$36-$N$36)</f>
+        <v>2.8760352508251003E-2</v>
+      </c>
+      <c r="P50" s="63">
+        <f t="shared" ref="P50:R50" si="25">O50+($S$50-$N$50)/($S$36-$N$36)</f>
+        <v>2.1570264381188253E-2</v>
+      </c>
+      <c r="Q50" s="63">
+        <f t="shared" si="25"/>
+        <v>1.4380176254125503E-2</v>
+      </c>
+      <c r="R50" s="63">
+        <f t="shared" si="25"/>
+        <v>7.1900881270627525E-3</v>
+      </c>
+      <c r="S50" s="63">
+        <f>M14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B52" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="66">
+        <f ca="1">N43-N49</f>
+        <v>195847.8054614994</v>
+      </c>
+      <c r="O52" s="66">
+        <f t="shared" ref="O52:S52" ca="1" si="26">O43-O49</f>
+        <v>317874.60517619812</v>
+      </c>
+      <c r="P52" s="66">
+        <f t="shared" ca="1" si="26"/>
+        <v>383695.88932992803</v>
+      </c>
+      <c r="Q52" s="66">
+        <f t="shared" ca="1" si="26"/>
+        <v>444386.03247379168</v>
+      </c>
+      <c r="R52" s="66">
+        <f t="shared" ca="1" si="26"/>
+        <v>492328.75731823978</v>
+      </c>
+      <c r="S52" s="67">
+        <f t="shared" ca="1" si="26"/>
+        <v>520688.99494459509</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I54" s="60">
+        <f t="shared" ref="I54:M54" si="27">I26</f>
+        <v>10261</v>
+      </c>
+      <c r="J54" s="60">
+        <f t="shared" si="27"/>
+        <v>11682</v>
+      </c>
+      <c r="K54" s="60">
+        <f t="shared" si="27"/>
+        <v>12796</v>
+      </c>
+      <c r="L54" s="60">
+        <f t="shared" si="27"/>
+        <v>11686</v>
+      </c>
+      <c r="M54" s="60">
+        <f t="shared" si="27"/>
+        <v>14460</v>
+      </c>
+      <c r="N54" s="61">
+        <f ca="1">N55*N$37</f>
+        <v>28864.530084599286</v>
+      </c>
+      <c r="O54" s="61">
+        <f t="shared" ref="O54:S54" ca="1" si="28">O55*O$37</f>
+        <v>43451.916654262801</v>
+      </c>
+      <c r="P54" s="61">
+        <f t="shared" ca="1" si="28"/>
+        <v>52124.288389051413</v>
+      </c>
+      <c r="Q54" s="61">
+        <f t="shared" ca="1" si="28"/>
+        <v>59928.52734797696</v>
+      </c>
+      <c r="R54" s="61">
+        <f t="shared" ca="1" si="28"/>
+        <v>65913.099600881003</v>
+      </c>
+      <c r="S54" s="61">
+        <f t="shared" ca="1" si="28"/>
+        <v>69208.754580925059</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56">
+        <f t="shared" ref="H55:M55" si="29">I54/I37</f>
+        <v>9.2977528089887643E-2</v>
+      </c>
+      <c r="J55" s="56">
+        <f t="shared" si="29"/>
+        <v>9.2829954784930432E-2</v>
+      </c>
+      <c r="K55" s="56">
+        <f t="shared" si="29"/>
+        <v>8.9473132188931229E-2</v>
+      </c>
+      <c r="L55" s="56">
+        <f t="shared" si="29"/>
+        <v>6.9523106943981727E-2</v>
+      </c>
+      <c r="M55" s="56">
+        <f t="shared" si="29"/>
+        <v>7.2930851868663937E-2</v>
+      </c>
+      <c r="N55" s="63">
+        <f>AVERAGE(K55:M55)</f>
+        <v>7.7309030333858955E-2</v>
+      </c>
+      <c r="O55" s="63">
+        <f>N55</f>
+        <v>7.7309030333858955E-2</v>
+      </c>
+      <c r="P55" s="63">
+        <f t="shared" ref="P55:S55" si="30">O55</f>
+        <v>7.7309030333858955E-2</v>
+      </c>
+      <c r="Q55" s="63">
+        <f t="shared" si="30"/>
+        <v>7.7309030333858955E-2</v>
+      </c>
+      <c r="R55" s="63">
+        <f t="shared" si="30"/>
+        <v>7.7309030333858955E-2</v>
+      </c>
+      <c r="S55" s="63">
+        <f t="shared" si="30"/>
+        <v>7.7309030333858955E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60">
+        <f t="shared" ref="G57:M57" si="31">H29</f>
+        <v>-8129</v>
+      </c>
+      <c r="I57" s="60">
+        <f t="shared" si="31"/>
+        <v>-11632</v>
+      </c>
+      <c r="J57" s="60">
+        <f t="shared" si="31"/>
+        <v>-13925</v>
+      </c>
+      <c r="K57" s="60">
+        <f t="shared" si="31"/>
+        <v>-15441</v>
+      </c>
+      <c r="L57" s="60">
+        <f t="shared" si="31"/>
+        <v>-20622</v>
+      </c>
+      <c r="M57" s="60">
+        <f t="shared" si="31"/>
+        <v>-23886</v>
+      </c>
+      <c r="N57" s="61">
+        <f ca="1">N58*N$37</f>
+        <v>-43699.392576239843</v>
+      </c>
+      <c r="O57" s="61">
+        <f t="shared" ref="O57:S57" ca="1" si="32">O58*O$37</f>
+        <v>-65783.934763511148</v>
+      </c>
+      <c r="P57" s="61">
+        <f t="shared" ca="1" si="32"/>
+        <v>-78913.453099505728</v>
+      </c>
+      <c r="Q57" s="61">
+        <f t="shared" ca="1" si="32"/>
+        <v>-90728.663706618143</v>
+      </c>
+      <c r="R57" s="61">
+        <f t="shared" ca="1" si="32"/>
+        <v>-99788.993859717069</v>
+      </c>
+      <c r="S57" s="61">
+        <f t="shared" ca="1" si="32"/>
+        <v>-104778.44355270293</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B58" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="54"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56">
+        <f t="shared" ref="H58:M58" si="33">I57/I$37</f>
+        <v>-0.10540050743022834</v>
+      </c>
+      <c r="J58" s="56">
+        <f t="shared" si="33"/>
+        <v>-0.11065375110256431</v>
+      </c>
+      <c r="K58" s="56">
+        <f t="shared" si="33"/>
+        <v>-0.10796769569625564</v>
+      </c>
+      <c r="L58" s="56">
+        <f t="shared" si="33"/>
+        <v>-0.12268573604302509</v>
+      </c>
+      <c r="M58" s="56">
+        <f t="shared" si="33"/>
+        <v>-0.12047208352246935</v>
+      </c>
+      <c r="N58" s="63">
+        <f>AVERAGE(K58:M58)</f>
+        <v>-0.11704183842058336</v>
+      </c>
+      <c r="O58" s="63">
+        <f>N58</f>
+        <v>-0.11704183842058336</v>
+      </c>
+      <c r="P58" s="63">
+        <f t="shared" ref="P58:S58" si="34">O58</f>
+        <v>-0.11704183842058336</v>
+      </c>
+      <c r="Q58" s="63">
+        <f t="shared" si="34"/>
+        <v>-0.11704183842058336</v>
+      </c>
+      <c r="R58" s="63">
+        <f t="shared" si="34"/>
+        <v>-0.11704183842058336</v>
+      </c>
+      <c r="S58" s="63">
+        <f t="shared" si="34"/>
+        <v>-0.11704183842058336</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28">
+        <f t="shared" ref="G60:L60" si="35">H32</f>
+        <v>139660</v>
+      </c>
+      <c r="I60" s="28">
+        <f t="shared" si="35"/>
+        <v>845.33333333333326</v>
+      </c>
+      <c r="J60" s="28">
+        <f t="shared" si="35"/>
+        <v>-715.83333333333337</v>
+      </c>
+      <c r="K60" s="28">
+        <f t="shared" si="35"/>
+        <v>364.16666666666663</v>
+      </c>
+      <c r="L60" s="28">
+        <f t="shared" si="35"/>
+        <v>2898.8333333333335</v>
+      </c>
+      <c r="M60" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="N60" s="61">
+        <f ca="1">N61*N$37</f>
+        <v>1755.312875800226</v>
+      </c>
+      <c r="O60" s="61">
+        <f t="shared" ref="O60:S60" ca="1" si="36">O61*O$37</f>
+        <v>2642.4025805332844</v>
+      </c>
+      <c r="P60" s="61">
+        <f t="shared" ca="1" si="36"/>
+        <v>3169.7877735429738</v>
+      </c>
+      <c r="Q60" s="61">
+        <f t="shared" ca="1" si="36"/>
+        <v>3644.3799837841802</v>
+      </c>
+      <c r="R60" s="61">
+        <f t="shared" ca="1" si="36"/>
+        <v>4008.3144286163201</v>
+      </c>
+      <c r="S60" s="61">
+        <f t="shared" ca="1" si="36"/>
+        <v>4208.7301500471358</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B61" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="54"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56">
+        <f t="shared" ref="H61:L61" si="37">I60/I$37</f>
+        <v>7.6597801135677174E-3</v>
+      </c>
+      <c r="J61" s="56">
+        <f t="shared" si="37"/>
+        <v>-5.6883047395034558E-3</v>
+      </c>
+      <c r="K61" s="56">
+        <f t="shared" si="37"/>
+        <v>2.5463529466606062E-3</v>
+      </c>
+      <c r="L61" s="56">
+        <f t="shared" si="37"/>
+        <v>1.7245926736788667E-2</v>
+      </c>
+      <c r="M61" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="N61" s="63">
+        <f>AVERAGE(J61:L61)</f>
+        <v>4.7013249813152727E-3</v>
+      </c>
+      <c r="O61" s="63">
+        <f>N61</f>
+        <v>4.7013249813152727E-3</v>
+      </c>
+      <c r="P61" s="63">
+        <f t="shared" ref="P61:S61" si="38">O61</f>
+        <v>4.7013249813152727E-3</v>
+      </c>
+      <c r="Q61" s="63">
+        <f t="shared" si="38"/>
+        <v>4.7013249813152727E-3</v>
+      </c>
+      <c r="R61" s="63">
+        <f t="shared" si="38"/>
+        <v>4.7013249813152727E-3</v>
+      </c>
+      <c r="S61" s="63">
+        <f t="shared" si="38"/>
+        <v>4.7013249813152727E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="70"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="70"/>
+      <c r="M63" s="70"/>
+      <c r="N63" s="71">
+        <f ca="1">N52+N54-N57-N60</f>
+        <v>266656.41524653829</v>
+      </c>
+      <c r="O63" s="71">
+        <f t="shared" ref="O63:S63" ca="1" si="39">O52+O54-O57-O60</f>
+        <v>424468.05401343876</v>
+      </c>
+      <c r="P63" s="71">
+        <f t="shared" ca="1" si="39"/>
+        <v>511563.84304494219</v>
+      </c>
+      <c r="Q63" s="71">
+        <f t="shared" ca="1" si="39"/>
+        <v>591398.84354460263</v>
+      </c>
+      <c r="R63" s="71">
+        <f t="shared" ca="1" si="39"/>
+        <v>654022.53635022149</v>
+      </c>
+      <c r="S63" s="72">
+        <f t="shared" ca="1" si="39"/>
+        <v>690467.46292817593</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B64" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="74">
+        <f t="shared" ref="N64:S64" ca="1" si="40">N63/(1+wacc)^N67</f>
+        <v>266656.41524653829</v>
+      </c>
+      <c r="O64" s="74">
+        <f t="shared" ca="1" si="40"/>
+        <v>424468.05401343876</v>
+      </c>
+      <c r="P64" s="74">
+        <f t="shared" ca="1" si="40"/>
+        <v>511563.84304494219</v>
+      </c>
+      <c r="Q64" s="74">
+        <f t="shared" ca="1" si="40"/>
+        <v>591398.84354460263</v>
+      </c>
+      <c r="R64" s="74">
+        <f t="shared" ca="1" si="40"/>
+        <v>654022.53635022149</v>
+      </c>
+      <c r="S64" s="75">
+        <f t="shared" ca="1" si="40"/>
+        <v>690467.46292817593</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="N66" s="76">
+        <f ca="1">YEARFRAC(D5,D6)</f>
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="O66" s="76">
+        <f ca="1">N66+1</f>
+        <v>1.3027777777777778</v>
+      </c>
+      <c r="P66" s="76">
+        <f t="shared" ref="P66:S66" ca="1" si="41">O66+1</f>
+        <v>2.302777777777778</v>
+      </c>
+      <c r="Q66" s="76">
+        <f t="shared" ca="1" si="41"/>
+        <v>3.302777777777778</v>
+      </c>
+      <c r="R66" s="76">
+        <f t="shared" ca="1" si="41"/>
+        <v>4.302777777777778</v>
+      </c>
+      <c r="S66" s="76">
+        <f t="shared" ca="1" si="41"/>
+        <v>5.302777777777778</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+      <c r="N67" s="76">
+        <f ca="1">N66/2</f>
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="O67" s="76">
+        <f ca="1">N66+0.5</f>
+        <v>0.80277777777777781</v>
+      </c>
+      <c r="P67" s="76">
+        <f ca="1">O67+1</f>
+        <v>1.8027777777777778</v>
+      </c>
+      <c r="Q67" s="76">
+        <f ca="1">P67+1</f>
+        <v>2.802777777777778</v>
+      </c>
+      <c r="R67" s="76">
+        <f ca="1">Q67+1</f>
+        <v>3.802777777777778</v>
+      </c>
+      <c r="S67" s="76">
+        <f ca="1">R67+1</f>
+        <v>4.802777777777778</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+      <c r="S69" s="61" t="e">
+        <f ca="1">(S63*(1+tgr))/(wacc-tgr)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="S70" s="61" t="e">
+        <f ca="1">S69/(1+wacc)^S67</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>135</v>
+      </c>
+      <c r="S71" s="28" t="e">
+        <f ca="1">SUM(N64:S64,S70)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>136</v>
+      </c>
+      <c r="S72" s="61">
+        <f>5783+10240</f>
+        <v>16023</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>137</v>
+      </c>
+      <c r="S73" s="61">
+        <f>[2]WACC!F15</f>
+        <v>9705</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>138</v>
+      </c>
+      <c r="S74" s="28" t="e">
+        <f ca="1">S71+S72-S73</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>139</v>
+      </c>
+      <c r="S76" s="28">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>140</v>
+      </c>
+      <c r="S77" s="45" t="e">
+        <f ca="1">S74/S76</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/AAPL Models.xlsx
+++ b/AAPL Models.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1B16A4-C377-4641-AC17-7CC770346CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD80EFA6-D87C-491B-AF09-51F1183DBD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{19AC2A9C-9D7C-4810-B43F-753FF0DDFD30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19AC2A9C-9D7C-4810-B43F-753FF0DDFD30}"/>
   </bookViews>
   <sheets>
     <sheet name="Historicals and 3SM" sheetId="1" r:id="rId1"/>
-    <sheet name="DCF" sheetId="2" r:id="rId2"/>
+    <sheet name="DCF Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="tgr">DCF!$E$16</definedName>
-    <definedName name="wacc">DCF!$E$14</definedName>
+    <definedName name="tgr">'DCF Model'!$E$16</definedName>
+    <definedName name="wacc">'DCF Model'!$E$14</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="142">
   <si>
     <t>Ticker</t>
   </si>
@@ -470,9 +470,6 @@
     <t>AAPL</t>
   </si>
   <si>
-    <t>APPLE HISTORICALS</t>
-  </si>
-  <si>
     <t>Year end</t>
   </si>
   <si>
@@ -582,6 +579,9 @@
   </si>
   <si>
     <t>APPLE DCF</t>
+  </si>
+  <si>
+    <t>APPLE HISTORICALS AND 3SM</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
     <numFmt numFmtId="167" formatCode="0%;\(0%\)"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,6 +623,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -989,50 +996,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1054,14 +1061,14 @@
     <xf numFmtId="37" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1081,23 +1088,23 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -1115,6 +1122,10 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1676,9 +1687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC8EC44-557D-4963-A951-793EC46E46C6}">
   <dimension ref="A2:S141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1688,7 +1697,7 @@
   <sheetData>
     <row r="2" spans="1:19" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1719,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="4" t="e">
-        <f ca="1">'[1]DCF Model'!I4</f>
+        <f>'[1]DCF Model'!I4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1750,12 +1759,12 @@
         <v>5</v>
       </c>
       <c r="I6" s="7" t="e">
-        <f ca="1">(I4/I5)-1</f>
+        <f>(I4/I5)-1</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="78" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1824,7 +1833,7 @@
       <c r="E14" s="10"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="78" t="s">
         <v>102</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -2613,7 +2622,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="78" t="s">
         <v>102</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -3344,7 +3353,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="78" t="s">
         <v>102</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -4087,7 +4096,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="78" t="s">
         <v>102</v>
       </c>
       <c r="B86" s="8" t="s">
@@ -4647,9 +4656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8C556D-2F97-4635-B1A6-C1AF6F15D13B}">
   <dimension ref="A2:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4659,7 +4666,7 @@
   <sheetData>
     <row r="2" spans="1:19" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -4667,8 +4674,9 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>103</v>
+      <c r="D4" s="77" t="str">
+        <f>'Historicals and 3SM'!D4</f>
+        <v>AAPL</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -4695,7 +4703,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="46">
         <v>45107</v>
@@ -4709,7 +4717,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="78" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -4735,17 +4743,17 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="9"/>
       <c r="G9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="O9" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -4754,11 +4762,11 @@
       </c>
       <c r="E10" s="10"/>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I10" s="48"/>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="48"/>
     </row>
@@ -4768,82 +4776,82 @@
       </c>
       <c r="E11" s="10"/>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I11" s="48"/>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M11" s="48"/>
       <c r="O11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="48"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="10"/>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I12" s="48"/>
       <c r="O12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q12" s="48"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M14" s="48"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="49"/>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I15" s="48"/>
       <c r="K15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M15" s="48"/>
       <c r="O15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q15" s="48"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="49"/>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I16" s="48"/>
       <c r="K16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M16" s="48"/>
       <c r="O16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="50"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="78" t="s">
         <v>102</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -4966,7 +4974,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B20" s="54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="54"/>
@@ -5083,7 +5091,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B23" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
@@ -5140,11 +5148,11 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="78" t="s">
         <v>102</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -5202,7 +5210,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="57"/>
       <c r="E26" s="52"/>
@@ -5240,7 +5248,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="56"/>
@@ -5294,7 +5302,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29" s="57"/>
       <c r="E29" s="51"/>
@@ -5333,7 +5341,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B30" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="54"/>
       <c r="D30" s="57"/>
@@ -5388,7 +5396,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="57"/>
       <c r="E32" s="51"/>
@@ -5424,7 +5432,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B33" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33" s="54"/>
       <c r="D33" s="57"/>
@@ -5458,7 +5466,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B34" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="54"/>
       <c r="F34" s="56"/>
@@ -5507,11 +5515,11 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="78" t="s">
         <v>102</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -5625,7 +5633,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B38" s="54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="54"/>
       <c r="E38" s="62"/>
@@ -5682,7 +5690,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N39" s="63">
         <f>N40</f>
@@ -5711,7 +5719,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N40" s="63">
         <f>N20</f>
@@ -5825,7 +5833,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B44" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="54"/>
       <c r="E44" s="56"/>
@@ -5882,7 +5890,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" s="54"/>
       <c r="N45" s="63">
@@ -5912,7 +5920,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="54"/>
       <c r="N46" s="63">
@@ -5972,7 +5980,7 @@
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N49" s="61">
         <f ca="1">N50*N43</f>
@@ -6001,7 +6009,7 @@
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" s="54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C50" s="54"/>
       <c r="N50" s="63">
@@ -6031,7 +6039,7 @@
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52" s="65"/>
       <c r="D52" s="65"/>
@@ -6071,7 +6079,7 @@
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E54" s="60"/>
       <c r="F54" s="60"/>
@@ -6127,7 +6135,7 @@
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E55" s="56"/>
       <c r="F55" s="56"/>
@@ -6180,7 +6188,7 @@
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E57" s="60"/>
       <c r="F57" s="60"/>
@@ -6236,7 +6244,7 @@
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" s="54"/>
       <c r="E58" s="56"/>
@@ -6290,7 +6298,7 @@
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
@@ -6316,7 +6324,7 @@
         <v>2898.8333333333335</v>
       </c>
       <c r="M60" s="68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N60" s="61">
         <f ca="1">N61*N$37</f>
@@ -6345,7 +6353,7 @@
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B61" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" s="54"/>
       <c r="E61" s="56"/>
@@ -6369,7 +6377,7 @@
         <v>1.7245926736788667E-2</v>
       </c>
       <c r="M61" s="68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N61" s="63">
         <f>AVERAGE(J61:L61)</f>
@@ -6398,7 +6406,7 @@
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63" s="69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C63" s="70"/>
       <c r="D63" s="70"/>
@@ -6438,7 +6446,7 @@
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64" s="73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C64" s="32"/>
       <c r="D64" s="32"/>
@@ -6478,7 +6486,7 @@
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N66" s="76">
         <f ca="1">YEARFRAC(D5,D6)</f>
@@ -6507,7 +6515,7 @@
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N67" s="76">
         <f ca="1">N66/2</f>
@@ -6536,7 +6544,7 @@
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S69" s="61" t="e">
         <f ca="1">(S63*(1+tgr))/(wacc-tgr)</f>
@@ -6545,7 +6553,7 @@
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S70" s="61" t="e">
         <f ca="1">S69/(1+wacc)^S67</f>
@@ -6554,7 +6562,7 @@
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S71" s="28" t="e">
         <f ca="1">SUM(N64:S64,S70)</f>
@@ -6563,7 +6571,7 @@
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S72" s="61">
         <f>5783+10240</f>
@@ -6572,7 +6580,7 @@
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S73" s="61">
         <f>[2]WACC!F15</f>
@@ -6581,7 +6589,7 @@
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S74" s="28" t="e">
         <f ca="1">S71+S72-S73</f>
@@ -6590,7 +6598,7 @@
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S76" s="28">
         <v>2516</v>
@@ -6598,7 +6606,7 @@
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S77" s="45" t="e">
         <f ca="1">S74/S76</f>
